--- a/src/test/resources/rules.xlsx
+++ b/src/test/resources/rules.xlsx
@@ -20,6 +20,9 @@
     <t>com.araguacaima.braas.drools</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Import</t>
   </si>
   <si>
@@ -30,11 +33,13 @@
 com.araguacaima.braas.RuleMessageInfo,
 com.araguacaima.braas.RuleMessageWarning,
 com.araguacaima.braas.RuleMessageError,
-com.araguacaima.braas.RuleMessageSuccess,
-java.lang.reflect.Proxy,
-java.util.Map,
-java.util.List,
-java.util.Locale</t>
+com.araguacaima.braas.RuleMessageSuccess</t>
+  </si>
+  <si>
+    <t>Boolean Value</t>
+  </si>
+  <si>
+    <t>Person Version</t>
   </si>
   <si>
     <t>Notes</t>
@@ -43,49 +48,28 @@
     <t>Decision tables for person model validation</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Rule Type</t>
+  </si>
+  <si>
+    <t>Validation Type</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Looping</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
   <si>
     <t>RuleTable for errors in person first name</t>
   </si>
   <si>
-    <t>Boolean Value</t>
-  </si>
-  <si>
-    <t>Person Version</t>
-  </si>
-  <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
-    <t>Rule Type</t>
-  </si>
-  <si>
-    <t>Validation Type</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Looping</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>i18n</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>Enabled</t>
-  </si>
-  <si>
-    <t>CONDITION</t>
-  </si>
-  <si>
-    <t>ACTION</t>
   </si>
   <si>
     <r>
@@ -109,9 +93,6 @@
     </r>
   </si>
   <si>
-    <t>NO-LOOP</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -136,18 +117,6 @@
     <t>0.8</t>
   </si>
   <si>
-    <t>AGENDA-GROUP</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t>AUTO-FOCUS</t>
-  </si>
-  <si>
-    <t>ENABLED</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -157,7 +126,7 @@
     <t>ERROR</t>
   </si>
   <si>
-    <t>en</t>
+    <t>i18n</t>
   </si>
   <si>
     <t>API</t>
@@ -170,6 +139,15 @@
   </si>
   <si>
     <t>No hay nada que deba corregirse</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>ACTION</t>
   </si>
   <si>
     <t>Disabled</t>
@@ -196,7 +174,7 @@
     </r>
   </si>
   <si>
-    <t>es</t>
+    <t>NO-LOOP</t>
   </si>
   <si>
     <t>false</t>
@@ -223,7 +201,16 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>$person:Person</t>
+    <t>AGENDA-GROUP</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>AUTO-FOCUS</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
   </si>
   <si>
     <t>No</t>
@@ -239,6 +226,9 @@
   </si>
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
   <si>
     <t>KO - MEJORABLE</t>
@@ -289,9 +279,15 @@
     <t>La API no puede publicarse hasta corregir este punto</t>
   </si>
   <si>
+    <t>es</t>
+  </si>
+  <si>
     <t>Scheduled</t>
   </si>
   <si>
+    <t>$person : Person</t>
+  </si>
+  <si>
     <t>It is strongly recommended to</t>
   </si>
   <si>
@@ -304,31 +300,31 @@
     <t>No aplica la API/Servicio/Método analizado</t>
   </si>
   <si>
-    <t xml:space="preserve">firstName $param null </t>
-  </si>
-  <si>
     <t>Preferably avoid</t>
   </si>
   <si>
-    <t>firstName != null &amp;&amp; firstName.equals( "" )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2", $person.firstName);		
+    <t>It is strongly not recommended to</t>
+  </si>
+  <si>
+    <t>Handle carefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getFirstName() $param null </t>
+  </si>
+  <si>
+    <t>getFirstName() != null &amp;&amp; getFirstName().equals( "" )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2", $person.getFirstName());		
 insert( errorEn );
-RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2", $person.firstName);	
+RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2", $person.getFirstName());	
 insert( errorEs );
 </t>
   </si>
   <si>
-    <t>It is strongly not recommended to</t>
-  </si>
-  <si>
     <t>RuleLogging.log($1, "Rule - $2 - fired");</t>
   </si>
   <si>
-    <t>Handle carefully</t>
-  </si>
-  <si>
     <t>Catalogue</t>
   </si>
   <si>
@@ -431,13 +427,13 @@
     <t>RuleTable for errors in person email</t>
   </si>
   <si>
-    <t>email $param null</t>
-  </si>
-  <si>
-    <t>email != null &amp;&amp;  email.equals(""))</t>
-  </si>
-  <si>
-    <t>email != null &amp;&amp; (email not matches $param)</t>
+    <t>getEmail() $param null</t>
+  </si>
+  <si>
+    <t>getEmail() != null &amp;&amp;  getEmail().equals(""))</t>
+  </si>
+  <si>
+    <t>getEmail() != null &amp;&amp; (getEmail() not matches $param)</t>
   </si>
   <si>
     <t>Valid pattern</t>
@@ -532,6 +528,11 @@
     </font>
     <font/>
     <font>
+      <sz val="14.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="16.0"/>
       <color rgb="FFFFFFFF"/>
@@ -539,11 +540,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -606,6 +602,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF434343"/>
         <bgColor rgb="FF434343"/>
       </patternFill>
@@ -618,20 +626,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFD966"/>
         <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -694,6 +690,14 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <left/>
       <top/>
       <bottom/>
@@ -720,45 +724,11 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color rgb="FFF3F3F3"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF1F3864"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
       </bottom>
@@ -774,13 +744,14 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -790,6 +761,31 @@
       <top style="thin">
         <color rgb="FFF3F3F3"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF1F3864"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
       </bottom>
@@ -1037,31 +1033,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1071,22 +1067,30 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1098,20 +1102,28 @@
     <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1120,140 +1132,137 @@
     <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="10" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="7" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="6" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="10" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="24" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="25" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="26" fillId="12" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1263,25 +1272,10 @@
     <xf borderId="20" fillId="13" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="27" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1296,7 +1290,7 @@
     <xf borderId="27" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1344,7 +1338,7 @@
     <xf borderId="38" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1368,7 +1362,6 @@
     <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="33" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1514,14 +1507,14 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -1534,10 +1527,10 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="AH1" s="8"/>
@@ -1550,7 +1543,7 @@
       <c r="AO1" s="8"/>
       <c r="AP1" s="8"/>
       <c r="AQ1" s="8"/>
-      <c r="AR1" s="6"/>
+      <c r="AR1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -1564,14 +1557,14 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1584,11 +1577,11 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AF2" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
@@ -1600,7 +1593,7 @@
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
-      <c r="AR2" s="6"/>
+      <c r="AR2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
@@ -1614,14 +1607,14 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -1634,11 +1627,11 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>5</v>
+      <c r="AF3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
@@ -1650,7 +1643,7 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
-      <c r="AR3" s="6"/>
+      <c r="AR3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -1664,14 +1657,14 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1684,8 +1677,8 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="18"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="22"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -1696,228 +1689,228 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
-      <c r="AR4" s="6"/>
+      <c r="AR4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG6" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH6" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI6" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK6" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL6" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM6" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN6" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO6" s="48" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
+      <c r="AG6" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI6" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK6" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO6" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH8" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI8" s="77" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="AJ8" s="78" t="s">
+      <c r="AH8" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI8" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
+      <c r="AJ8" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
     </row>
     <row r="9" ht="34.5" customHeight="1">
-      <c r="A9" s="83"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="86" t="s">
         <v>72</v>
@@ -1948,7 +1941,7 @@
         <v>75</v>
       </c>
       <c r="W9" s="87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X9" s="87" t="s">
         <v>76</v>
@@ -2000,13 +1993,13 @@
         <v>91</v>
       </c>
       <c r="AO9" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="100"/>
       <c r="C10" s="101">
         <v>1.0</v>
@@ -2077,7 +2070,7 @@
         <v>ERROR,Person's first name cannot be null</v>
       </c>
       <c r="AK10" s="112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL10" s="113" t="s">
         <v>100</v>
@@ -2090,13 +2083,13 @@
         <v>true</v>
       </c>
       <c r="AO10" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="100"/>
       <c r="C11" s="101">
         <v>1.0</v>
@@ -2163,7 +2156,7 @@
         <v>ERROR,Person's first name cannot be empty</v>
       </c>
       <c r="AK11" s="112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL11" s="113" t="s">
         <v>100</v>
@@ -2179,233 +2172,233 @@
         <f>IF(AG11="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="22" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="4"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK13" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL13" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM13" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN13" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP13" s="48" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AQ13" s="6"/>
+      <c r="AG13" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH13" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI13" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ13" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL13" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN13" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO13" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP13" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH14" s="114"/>
-      <c r="AI14" s="114"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="6"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="7"/>
     </row>
     <row r="15" ht="30.0" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="76" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="AH15" s="76" t="s">
+      <c r="AH15" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="AI15" s="76" t="s">
+      <c r="AI15" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="AJ15" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK15" s="78" t="s">
+      <c r="AJ15" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="6"/>
+      <c r="AK15" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="7"/>
     </row>
     <row r="16" ht="34.5" customHeight="1">
-      <c r="A16" s="83"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="85"/>
       <c r="C16" s="86" t="s">
         <v>72</v>
@@ -2436,7 +2429,7 @@
         <v>75</v>
       </c>
       <c r="W16" s="87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X16" s="87" t="s">
         <v>76</v>
@@ -2469,7 +2462,7 @@
       <c r="AH16" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="AI16" s="115" t="s">
+      <c r="AI16" s="114" t="s">
         <v>109</v>
       </c>
       <c r="AJ16" s="97" t="s">
@@ -2491,27 +2484,27 @@
         <v>91</v>
       </c>
       <c r="AP16" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ16" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="AQ16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="100"/>
-      <c r="C17" s="116">
+      <c r="C17" s="115">
         <v>2.0</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118" t="s">
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117" t="s">
         <v>110</v>
       </c>
       <c r="O17" s="105"/>
@@ -2524,7 +2517,7 @@
         <f t="shared" ref="U17:U19" si="6">N17</f>
         <v>email</v>
       </c>
-      <c r="V17" s="119" t="s">
+      <c r="V17" s="118" t="s">
         <v>111</v>
       </c>
       <c r="W17" s="101" t="s">
@@ -2555,7 +2548,7 @@
       <c r="AG17" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="AH17" s="120"/>
+      <c r="AH17" s="119"/>
       <c r="AI17" s="109"/>
       <c r="AJ17" s="110" t="str">
         <f t="shared" ref="AJ17:AJ19" si="8">CONCATENATE(
@@ -2568,9 +2561,9 @@
         <v>ERROR,Person's email cannot be null</v>
       </c>
       <c r="AL17" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM17" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM17" s="120" t="s">
         <v>110</v>
       </c>
       <c r="AN17" s="113">
@@ -2584,25 +2577,25 @@
         <f t="shared" ref="AP17:AP19" si="11">IF(AF17="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AQ17" s="6"/>
+      <c r="AQ17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="100"/>
-      <c r="C18" s="116">
+      <c r="C18" s="115">
         <v>2.0</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="118" t="s">
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117" t="s">
         <v>110</v>
       </c>
       <c r="O18" s="105"/>
@@ -2615,7 +2608,7 @@
         <f t="shared" si="6"/>
         <v>email</v>
       </c>
-      <c r="V18" s="119" t="s">
+      <c r="V18" s="118" t="s">
         <v>111</v>
       </c>
       <c r="W18" s="101" t="s">
@@ -2645,7 +2638,7 @@
       </c>
       <c r="AG18" s="113"/>
       <c r="AH18" s="109"/>
-      <c r="AI18" s="122"/>
+      <c r="AI18" s="121"/>
       <c r="AJ18" s="110" t="str">
         <f t="shared" si="8"/>
         <v>person,email,en,2 [email] - Persons's email cannot be empty,Persons's email cannot be empty,An email with some value different than empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío</v>
@@ -2655,9 +2648,9 @@
         <v>ERROR,Persons's email cannot be empty</v>
       </c>
       <c r="AL18" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM18" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM18" s="120" t="s">
         <v>110</v>
       </c>
       <c r="AN18" s="113">
@@ -2671,25 +2664,25 @@
         <f t="shared" si="11"/>
         <v>true</v>
       </c>
-      <c r="AQ18" s="6"/>
+      <c r="AQ18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="100"/>
-      <c r="C19" s="116">
+      <c r="C19" s="115">
         <v>2.0</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="118" t="s">
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="117" t="s">
         <v>110</v>
       </c>
       <c r="O19" s="105"/>
@@ -2702,7 +2695,7 @@
         <f t="shared" si="6"/>
         <v>email</v>
       </c>
-      <c r="V19" s="119" t="s">
+      <c r="V19" s="118" t="s">
         <v>111</v>
       </c>
       <c r="W19" s="101" t="s">
@@ -2714,16 +2707,16 @@
       <c r="Y19" s="105"/>
       <c r="Z19" s="105"/>
       <c r="AA19" s="106"/>
-      <c r="AB19" s="123" t="s">
+      <c r="AB19" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="AC19" s="123" t="s">
+      <c r="AC19" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="AD19" s="123" t="s">
+      <c r="AD19" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="AE19" s="123" t="s">
+      <c r="AE19" s="122" t="s">
         <v>123</v>
       </c>
       <c r="AF19" s="108" t="str">
@@ -2732,7 +2725,7 @@
       </c>
       <c r="AG19" s="113"/>
       <c r="AH19" s="113"/>
-      <c r="AI19" s="124" t="s">
+      <c r="AI19" s="123" t="s">
         <v>124</v>
       </c>
       <c r="AJ19" s="110" t="str">
@@ -2744,12 +2737,12 @@
         <v>ERROR,Person's email is not valid</v>
       </c>
       <c r="AL19" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM19" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM19" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="AN19" s="121">
+      <c r="AN19" s="120">
         <v>98.0</v>
       </c>
       <c r="AO19" s="112" t="str">
@@ -2760,10 +2753,10 @@
         <f t="shared" si="11"/>
         <v>true</v>
       </c>
-      <c r="AQ19" s="6"/>
+      <c r="AQ19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="AD14:AE14"/>
@@ -2771,6 +2764,7 @@
     <mergeCell ref="AB13:AE13"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AG7:AH7"/>
   </mergeCells>
   <conditionalFormatting sqref="AA1:AA4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -2992,570 +2986,570 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
     </row>
     <row r="3" ht="3.75" customHeight="1">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="13"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="13"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="13"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="13"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="13"/>
+      <c r="R3" s="11"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="13"/>
+      <c r="T3" s="11"/>
       <c r="U3" s="9"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="31" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="31" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="16" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
     </row>
     <row r="5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="F5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="47" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="51"/>
-      <c r="S5" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="44"/>
+      <c r="S5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="47"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
     </row>
     <row r="6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="57" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="59" t="s">
+      <c r="L6" s="53"/>
+      <c r="M6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="59" t="s">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="59" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="59" t="s">
+      <c r="T6" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="64"/>
-      <c r="S6" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
     </row>
     <row r="7">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="68" t="s">
+      <c r="L7" s="36"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="47" t="s">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="47" t="s">
+      <c r="R7" s="44"/>
+      <c r="S7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="47" t="s">
+      <c r="T7" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="T7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
     </row>
     <row r="8">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="59" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="59" t="s">
+      <c r="L8" s="53"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="66" t="s">
+      <c r="R8" s="57"/>
+      <c r="S8" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="64" t="s">
+      <c r="T8" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
     </row>
     <row r="9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
     </row>
     <row r="10">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="53"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
     </row>
     <row r="11">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
     </row>
     <row r="12" ht="3.75" customHeight="1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/src/test/resources/rules.xlsx
+++ b/src/test/resources/rules.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>RuleSet</t>
   </si>
@@ -74,12 +74,12 @@
     <t xml:space="preserve">getFirstName() $param null </t>
   </si>
   <si>
-    <t>getFirstName() != null &amp;&amp; getFirstName().equals( "" )</t>
+    <t>getFirstName() != null &amp;&amp; getFirstName() $param  ""</t>
   </si>
   <si>
     <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2", $11);                
 insert( errorEn );
-RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2", null);        
+RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2", $11);        
 insert( errorEs );</t>
   </si>
   <si>
@@ -122,7 +122,7 @@
     <t>Fill Error</t>
   </si>
   <si>
-    <t>Log Rule Fired</t>
+    <t xml:space="preserve">Log Fired Rule </t>
   </si>
   <si>
     <t>No-Loop</t>
@@ -182,17 +182,10 @@
     <t>getEmail() $param null</t>
   </si>
   <si>
-    <t>getEmail() != null &amp;&amp;  getEmail().equals(""))</t>
-  </si>
-  <si>
-    <t>getEmail() != null &amp;&amp; (getEmail() not matches $param)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2", $11);                
-insert( errorEn );
-RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2", $11);        
-insert( errorEs );
-</t>
+    <t>getEmail() != null &amp;&amp;  getEmail() $param  ""</t>
+  </si>
+  <si>
+    <t>getEmail() != null &amp;&amp; getEmail() not matches $param</t>
   </si>
   <si>
     <t>Valid pattern</t>
@@ -684,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -864,6 +857,9 @@
     <xf borderId="27" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="27" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="28" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -914,6 +910,9 @@
     </xf>
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1344,7 +1343,7 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" ht="39.75" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="26"/>
@@ -1452,22 +1451,22 @@
       <c r="AF8" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AG8" s="62" t="s">
+      <c r="AG8" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AH8" s="63" t="s">
+      <c r="AH8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AI8" s="64" t="s">
+      <c r="AI8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="AJ8" s="64" t="s">
+      <c r="AJ8" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="AK8" s="64" t="s">
+      <c r="AK8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AL8" s="63" t="s">
+      <c r="AL8" s="64" t="s">
         <v>38</v>
       </c>
       <c r="AM8" s="3"/>
@@ -1476,82 +1475,82 @@
     </row>
     <row r="9">
       <c r="A9" s="4"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67">
         <v>1.0</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68" t="str">
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69" t="str">
         <f t="shared" ref="U9:U10" si="1">N9</f>
         <v>firstName</v>
       </c>
-      <c r="V9" s="69" t="s">
+      <c r="V9" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="W9" s="70"/>
-      <c r="X9" s="71" t="s">
+      <c r="W9" s="71"/>
+      <c r="X9" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="71" t="s">
+      <c r="Y9" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Z9" s="71" t="s">
+      <c r="Z9" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="71" t="s">
+      <c r="AA9" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="73" t="str">
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="74" t="str">
         <f t="shared" ref="AC9:AC10" si="2">X9</f>
         <v>Person's first name cannot be null</v>
       </c>
-      <c r="AD9" s="74" t="s">
+      <c r="AD9" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="75" t="str">
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="76" t="str">
         <f t="shared" ref="AF9:AF10" si="3">CONCATENATE(
 "person",",",U9,",",$X$6,",",C9," [",U9,"] - ",X9,",",X9,",",Y9,",", $Z$6,",",C9," [",U9,"] - ",Z9,",",Z9,",",AA9,",","$person.getFirstName()")</f>
         <v>person,firstName,en,1 [firstName] - Person's first name cannot be null,Person's first name cannot be null,A name with some value different than null,es,1 [firstName] - El primer nombre de la persona no pude ser nulo,El primer nombre de la persona no pude ser nulo,Un nombre con algún valor diferente de nulo,$person.getFirstName()</v>
       </c>
-      <c r="AG9" s="76" t="str">
+      <c r="AG9" s="77" t="str">
         <f t="shared" ref="AG9:AG10" si="4">CONCATENATE("ERROR",",",X9)</f>
         <v>ERROR,Person's first name cannot be null</v>
       </c>
-      <c r="AH9" s="77" t="s">
+      <c r="AH9" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="AI9" s="78" t="str">
+      <c r="AI9" s="79" t="str">
         <f t="shared" ref="AI9:AI10" si="5">U9</f>
         <v>firstName</v>
       </c>
-      <c r="AJ9" s="79">
+      <c r="AJ9" s="80">
         <v>100.0</v>
       </c>
-      <c r="AK9" s="77" t="str">
+      <c r="AK9" s="78" t="str">
         <f t="shared" ref="AK9:AK10" si="6">IF(AC9="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AL9" s="77" t="s">
+      <c r="AL9" s="78" t="s">
         <v>46</v>
       </c>
       <c r="AM9" s="4"/>
@@ -1560,79 +1559,81 @@
     </row>
     <row r="10">
       <c r="A10" s="4"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67">
         <v>1.0</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="67" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68" t="str">
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69" t="str">
         <f t="shared" si="1"/>
         <v>firstName</v>
       </c>
-      <c r="V10" s="69" t="s">
+      <c r="V10" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="70"/>
-      <c r="X10" s="71" t="s">
+      <c r="W10" s="71"/>
+      <c r="X10" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="Y10" s="71" t="s">
+      <c r="Y10" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="Z10" s="71" t="s">
+      <c r="Z10" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="73" t="str">
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="74" t="str">
         <f t="shared" si="2"/>
         <v>Person's first name cannot be empty</v>
       </c>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="75" t="str">
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="76" t="str">
         <f t="shared" si="3"/>
         <v>person,firstName,en,1 [firstName] - Person's first name cannot be empty,Person's first name cannot be empty,A name with some value different than empty,es,1 [firstName] - El primer nombre de la persona no pude ser vacío,El primer nombre de la persona no pude ser vacío,Un nombre con algún valor diferente de vacío,$person.getFirstName()</v>
       </c>
-      <c r="AG10" s="76" t="str">
+      <c r="AG10" s="77" t="str">
         <f t="shared" si="4"/>
         <v>ERROR,Person's first name cannot be empty</v>
       </c>
-      <c r="AH10" s="77" t="s">
+      <c r="AH10" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="AI10" s="78" t="str">
+      <c r="AI10" s="79" t="str">
         <f t="shared" si="5"/>
         <v>firstName</v>
       </c>
-      <c r="AJ10" s="79">
+      <c r="AJ10" s="80">
         <v>99.0</v>
       </c>
-      <c r="AK10" s="77" t="str">
+      <c r="AK10" s="78" t="str">
         <f t="shared" si="6"/>
         <v>true</v>
       </c>
-      <c r="AL10" s="77" t="str">
+      <c r="AL10" s="78" t="str">
         <f>IF(AD10="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
@@ -1715,7 +1716,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="80"/>
+      <c r="AB12" s="82"/>
       <c r="AC12" s="20" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>54</v>
       </c>
       <c r="AG14" s="47" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AH14" s="48" t="s">
         <v>20</v>
@@ -1908,28 +1909,28 @@
       <c r="AE15" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AF15" s="81" t="s">
-        <v>56</v>
+      <c r="AF15" s="83" t="s">
+        <v>55</v>
       </c>
       <c r="AG15" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AH15" s="62" t="s">
+      <c r="AH15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AI15" s="63" t="s">
+      <c r="AI15" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AJ15" s="64" t="s">
+      <c r="AJ15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="AK15" s="64" t="s">
+      <c r="AK15" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="AL15" s="64" t="s">
+      <c r="AL15" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AM15" s="63" t="s">
+      <c r="AM15" s="64" t="s">
         <v>38</v>
       </c>
       <c r="AN15" s="3"/>
@@ -1937,83 +1938,83 @@
     </row>
     <row r="16">
       <c r="A16" s="4"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="82">
+      <c r="B16" s="66"/>
+      <c r="C16" s="84">
         <v>2.0</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85" t="str">
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87" t="str">
         <f t="shared" ref="U16:U18" si="7">N16</f>
         <v>email</v>
       </c>
-      <c r="V16" s="86" t="s">
+      <c r="V16" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" s="71"/>
+      <c r="X16" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="70"/>
-      <c r="X16" s="71" t="s">
+      <c r="Y16" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="Y16" s="71" t="s">
+      <c r="Z16" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="Z16" s="71" t="s">
+      <c r="AA16" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="AA16" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="73" t="str">
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="74" t="str">
         <f t="shared" ref="AC16:AC18" si="8">X16</f>
         <v>Person's email cannot be null</v>
       </c>
-      <c r="AD16" s="74" t="s">
+      <c r="AD16" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="75" t="str">
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="76" t="str">
         <f t="shared" ref="AG16:AG18" si="9">CONCATENATE(
 "person",",",U16,",",$X$6,",",C16," [",U16,"] - ",X16,",",X16,",",Y16,",", $Z$6,",",C16," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
         <v>person,email,en,2 [email] - Person's email cannot be null,Person's email cannot be null,An email with some value different than null,es,2 [email] - El email de la persona no puede ser nulo,El email de la persona no puede ser nulo,Un email con algún valor diferente de nulo,$person.getEmail()</v>
       </c>
-      <c r="AH16" s="76" t="str">
+      <c r="AH16" s="77" t="str">
         <f t="shared" ref="AH16:AH18" si="10">CONCATENATE("ERROR",",",X16)</f>
         <v>ERROR,Person's email cannot be null</v>
       </c>
-      <c r="AI16" s="77" t="s">
+      <c r="AI16" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="AJ16" s="78" t="str">
+      <c r="AJ16" s="79" t="str">
         <f t="shared" ref="AJ16:AJ18" si="11">U16</f>
         <v>email</v>
       </c>
-      <c r="AK16" s="79">
+      <c r="AK16" s="80">
         <v>100.0</v>
       </c>
-      <c r="AL16" s="77" t="str">
+      <c r="AL16" s="78" t="str">
         <f t="shared" ref="AL16:AL18" si="12">IF(AD16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AM16" s="77" t="str">
+      <c r="AM16" s="78" t="str">
         <f t="shared" ref="AM16:AM18" si="13">IF(AC16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
@@ -2022,80 +2023,82 @@
     </row>
     <row r="17">
       <c r="A17" s="4"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="82">
+      <c r="B17" s="66"/>
+      <c r="C17" s="84">
         <v>2.0</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85" t="str">
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87" t="str">
         <f t="shared" si="7"/>
         <v>email</v>
       </c>
-      <c r="V17" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" s="70"/>
-      <c r="X17" s="71" t="s">
+      <c r="V17" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" s="71"/>
+      <c r="X17" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="Y17" s="71" t="s">
+      <c r="Z17" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="Z17" s="71" t="s">
+      <c r="AA17" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AA17" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="73" t="str">
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="74" t="str">
         <f t="shared" si="8"/>
         <v>Persons's email cannot be empty</v>
       </c>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="75" t="str">
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="76" t="str">
         <f t="shared" si="9"/>
         <v>person,email,en,2 [email] - Persons's email cannot be empty,Persons's email cannot be empty,An email with some value different than empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
       </c>
-      <c r="AH17" s="76" t="str">
+      <c r="AH17" s="77" t="str">
         <f t="shared" si="10"/>
         <v>ERROR,Persons's email cannot be empty</v>
       </c>
-      <c r="AI17" s="77" t="s">
+      <c r="AI17" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="AJ17" s="78" t="str">
+      <c r="AJ17" s="79" t="str">
         <f t="shared" si="11"/>
         <v>email</v>
       </c>
-      <c r="AK17" s="79">
+      <c r="AK17" s="80">
         <v>99.0</v>
       </c>
-      <c r="AL17" s="77" t="str">
+      <c r="AL17" s="78" t="str">
         <f t="shared" si="12"/>
         <v>true</v>
       </c>
-      <c r="AM17" s="77" t="str">
+      <c r="AM17" s="78" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
@@ -2104,82 +2107,82 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="82">
+      <c r="B18" s="66"/>
+      <c r="C18" s="84">
         <v>2.0</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85" t="str">
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87" t="str">
         <f t="shared" si="7"/>
         <v>email</v>
       </c>
-      <c r="V18" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="W18" s="70"/>
-      <c r="X18" s="89" t="s">
+      <c r="V18" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="W18" s="71"/>
+      <c r="X18" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y18" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" s="89" t="s">
+      <c r="Z18" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="Z18" s="89" t="s">
+      <c r="AA18" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="AA18" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="73" t="str">
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="74" t="str">
         <f t="shared" si="8"/>
         <v>Person's email is not valid</v>
       </c>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG18" s="75" t="str">
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG18" s="76" t="str">
         <f t="shared" si="9"/>
         <v>person,email,en,2 [email] - Person's email is not valid,Person's email is not valid,A valid email,es,2 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
       </c>
-      <c r="AH18" s="76" t="str">
+      <c r="AH18" s="77" t="str">
         <f t="shared" si="10"/>
         <v>ERROR,Person's email is not valid</v>
       </c>
-      <c r="AI18" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ18" s="78" t="str">
+      <c r="AI18" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ18" s="79" t="str">
         <f t="shared" si="11"/>
         <v>email</v>
       </c>
-      <c r="AK18" s="78">
+      <c r="AK18" s="79">
         <v>98.0</v>
       </c>
-      <c r="AL18" s="77" t="str">
+      <c r="AL18" s="78" t="str">
         <f t="shared" si="12"/>
         <v>true</v>
       </c>
-      <c r="AM18" s="77" t="str">
+      <c r="AM18" s="78" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>

--- a/src/test/resources/rules.xlsx
+++ b/src/test/resources/rules.xlsx
@@ -5,21 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\workspace\araguacaima\braas\core\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\workspace\araguacaima\braas\braas-core\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Decision Tables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,9 +24,6 @@
     <t>RuleSet</t>
   </si>
   <si>
-    <t>com.araguacaima.braas.drools</t>
-  </si>
-  <si>
     <t>Import</t>
   </si>
   <si>
@@ -71,21 +63,12 @@
     <t>es</t>
   </si>
   <si>
-    <t>$person : Person</t>
-  </si>
-  <si>
     <t xml:space="preserve">getFirstName() $param null </t>
   </si>
   <si>
     <t>getFirstName() != null &amp;&amp; getFirstName() $param  ""</t>
   </si>
   <si>
-    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2", $11);                
-insert( errorEn );
-RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2", $11);        
-insert( errorEs );</t>
-  </si>
-  <si>
     <t>RuleLogging.log("$1", "Rule - $2 - fired");</t>
   </si>
   <si>
@@ -242,86 +225,95 @@
     <t>false</t>
   </si>
   <si>
-    <t>com.araguacaima.braas.core.drools.model.Person,
-com.araguacaima.braas.core.drools.model.CreditCard,
-com.araguacaima.braas.core.drools.model.Company,
+    <t>com.araguacaima.braas</t>
+  </si>
+  <si>
+    <t>com.araguacaima.braas.model.person.Person,
 com.araguacaima.braas.core.RuleLogging,
 com.araguacaima.braas.core.RuleMessageInfo,
 com.araguacaima.braas.core.RuleMessageWarning,
 com.araguacaima.braas.core.RuleMessageError,
 com.araguacaima.braas.core.RuleMessageSuccess</t>
   </si>
+  <si>
+    <t>$person : Person</t>
+  </si>
+  <si>
+    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2", null);                
+insert( errorEn );
+RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2", null);        
+insert( errorEs );</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -334,59 +326,87 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF073763"/>
-        <bgColor rgb="FF1F3864"/>
+        <bgColor rgb="FF073763"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF434343"/>
-        <bgColor rgb="FF1F3864"/>
+        <bgColor rgb="FF434343"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E75B5"/>
         <bgColor rgb="FF2E75B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2E75B5"/>
-        <bgColor rgb="FF1155CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -414,6 +434,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,6 +488,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEFEFEF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB7B7B7"/>
       </left>
@@ -484,6 +522,17 @@
       <top style="thin">
         <color rgb="FFF3F3F3"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF1F3864"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
       </bottom>
@@ -531,7 +580,7 @@
         <color rgb="FFF3F3F3"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,7 +589,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +712,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEFEFEF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -703,23 +761,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="81">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -732,23 +775,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -756,186 +790,207 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,270 +998,230 @@
   <dxfs count="28">
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
           <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
           <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBFBFBF"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFEFEFEF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF1155CC"/>
-      <rgbColor rgb="FFC9DAF8"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFB7B7B7"/>
-      <rgbColor rgb="FFFFD966"/>
-      <rgbColor rgb="FF2E75B5"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF073763"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF1F3864"/>
-      <rgbColor rgb="FF434343"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1481,13 +1496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP18"/>
+  <dimension ref="A1:AP1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA11" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="0.88671875" customWidth="1"/>
@@ -1509,7 +1524,7 @@
     <col min="24" max="27" width="26.5546875" customWidth="1"/>
     <col min="28" max="28" width="0.88671875" customWidth="1"/>
     <col min="29" max="29" width="26.5546875" customWidth="1"/>
-    <col min="30" max="30" width="47.33203125" customWidth="1"/>
+    <col min="30" max="30" width="45.5546875" customWidth="1"/>
     <col min="31" max="31" width="33.109375" customWidth="1"/>
     <col min="32" max="32" width="27.88671875" customWidth="1"/>
     <col min="33" max="33" width="44.33203125" customWidth="1"/>
@@ -1521,1306 +1536,2285 @@
     <col min="39" max="39" width="17.88671875" customWidth="1"/>
     <col min="40" max="41" width="12.109375" customWidth="1"/>
     <col min="42" max="42" width="0.88671875" customWidth="1"/>
-    <col min="43" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="12" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="4"/>
+    </row>
+    <row r="2" spans="1:42" ht="86.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="9"/>
+      <c r="AD2" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4"/>
     </row>
-    <row r="2" spans="1:42" ht="115.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="9"/>
-    </row>
-    <row r="3" spans="1:42">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="9"/>
+    <row r="3" spans="1:42" ht="14.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="4"/>
     </row>
     <row r="4" spans="1:42" ht="21">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="22" t="s">
+      <c r="AD5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AD5" s="23" t="s">
+      <c r="AE5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AG5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AF5" s="24" t="s">
+      <c r="AH5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH5" s="26" t="s">
+      <c r="AI5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AI5" s="26" t="s">
+      <c r="AJ5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AJ5" s="26" t="s">
+      <c r="AK5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="26" t="s">
+      <c r="AL5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AL5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
     </row>
     <row r="6" spans="1:42" ht="15" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="3" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+    </row>
+    <row r="7" spans="1:42" ht="136.19999999999999" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="1" t="s">
+      <c r="AE7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-    </row>
-    <row r="7" spans="1:42" ht="39.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="42" t="s">
+      <c r="AF7" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AE7" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF7" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG7" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
     </row>
     <row r="8" spans="1:42" ht="34.5" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="47" t="s">
+      <c r="W8" s="42"/>
+      <c r="X8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="49" t="s">
+      <c r="Y8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="49" t="s">
+      <c r="Z8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="W8" s="50"/>
-      <c r="X8" s="51" t="s">
+      <c r="AA8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="52" t="s">
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="53" t="s">
+      <c r="AD8" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="54" t="s">
+      <c r="AE8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56" t="s">
+      <c r="AF8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="57" t="s">
+      <c r="AG8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" s="57" t="s">
+      <c r="AH8" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AF8" s="58" t="s">
+      <c r="AI8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AG8" s="58" t="s">
+      <c r="AJ8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AH8" s="59" t="s">
+      <c r="AK8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AI8" s="60" t="s">
+      <c r="AL8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AJ8" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK8" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL8" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
     </row>
     <row r="9" spans="1:42" ht="172.8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62">
+      <c r="A9" s="4"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54">
         <v>1</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56" t="str">
+        <f t="shared" ref="U9:U10" si="0">N9</f>
+        <v>firstName</v>
+      </c>
+      <c r="V9" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="57"/>
+      <c r="X9" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64" t="str">
-        <f>N9</f>
-        <v>firstName</v>
-      </c>
-      <c r="V9" s="64" t="s">
+      <c r="Z9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="65"/>
-      <c r="X9" s="66" t="s">
+      <c r="AA9" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" s="66" t="s">
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60" t="str">
+        <f t="shared" ref="AC9:AC10" si="1">X9</f>
+        <v>Person's first name cannot be null</v>
+      </c>
+      <c r="AD9" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="Z9" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA9" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="68" t="str">
-        <f>X9</f>
-        <v>Person's first name cannot be null</v>
-      </c>
-      <c r="AD9" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="70" t="str">
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="62" t="str">
         <f>CONCATENATE( "person",",",U9,",",$X$6,",",C9," [",U9,"] - ",X9,",",X9,",",Y9,",", $Z$6,",",C9," [",U9,"] - ",Z9,",",Z9,",",AA9,",","$person.getFirstName()")</f>
         <v>person,firstName,en,1 [firstName] - Person's first name cannot be null,Person's first name cannot be null,A name with some value different than null,es,1 [firstName] - El primer nombre de la persona no pude ser nulo,El primer nombre de la persona no pude ser nulo,Un nombre con algún valor diferente de nulo,$person.getFirstName()</v>
       </c>
-      <c r="AG9" s="66" t="str">
-        <f>CONCATENATE("ERROR",",",X9)</f>
+      <c r="AG9" s="58" t="str">
+        <f t="shared" ref="AG9:AG10" si="2">CONCATENATE("ERROR",",",X9)</f>
         <v>ERROR,Person's first name cannot be null</v>
       </c>
-      <c r="AH9" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="72" t="str">
-        <f>U9</f>
+      <c r="AH9" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI9" s="64" t="str">
+        <f t="shared" ref="AI9:AI10" si="3">U9</f>
         <v>firstName</v>
       </c>
-      <c r="AJ9" s="72">
+      <c r="AJ9" s="64">
         <v>100</v>
       </c>
-      <c r="AK9" s="71" t="str">
-        <f>IF(AC9="COMPLETE","false","true")</f>
+      <c r="AK9" s="63" t="str">
+        <f t="shared" ref="AK9:AK10" si="4">IF(AC9="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AL9" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
+      <c r="AL9" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
     </row>
     <row r="10" spans="1:42" ht="172.8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62">
+      <c r="A10" s="4"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54">
         <v>1</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64" t="str">
-        <f>N10</f>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56" t="str">
+        <f t="shared" si="0"/>
         <v>firstName</v>
       </c>
-      <c r="V10" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66" t="s">
+      <c r="V10" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="57"/>
+      <c r="X10" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z10" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="68" t="str">
-        <f>X10</f>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60" t="str">
+        <f t="shared" si="1"/>
         <v>Person's first name cannot be empty</v>
       </c>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF10" s="70" t="str">
-        <f>CONCATENATE( "person",",",U10,",",$X$6,",",C10," [",U10,"] - ",X10,",",X10,",",Y10,",", $Z$6,",",C10," [",U10,"] - ",Z10,",",Z10,",",AA10,",","$person.getFirstName()")</f>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" s="62" t="str">
+        <f t="shared" ref="AF10" si="5">CONCATENATE( "person",",",U10,",",$X$6,",",C10," [",U10,"] - ",X10,",",X10,",",Y10,",", $Z$6,",",C10," [",U10,"] - ",Z10,",",Z10,",",AA10,",","$person.getFirstName()")</f>
         <v>person,firstName,en,1 [firstName] - Person's first name cannot be empty,Person's first name cannot be empty,A name with some value different than empty,es,1 [firstName] - El primer nombre de la persona no pude ser vacío,El primer nombre de la persona no pude ser vacío,Un nombre con algún valor diferente de vacío,$person.getFirstName()</v>
       </c>
-      <c r="AG10" s="66" t="str">
-        <f>CONCATENATE("ERROR",",",X10)</f>
+      <c r="AG10" s="58" t="str">
+        <f t="shared" si="2"/>
         <v>ERROR,Person's first name cannot be empty</v>
       </c>
-      <c r="AH10" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="72" t="str">
-        <f>U10</f>
+      <c r="AH10" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" s="64" t="str">
+        <f t="shared" si="3"/>
         <v>firstName</v>
       </c>
-      <c r="AJ10" s="72">
+      <c r="AJ10" s="64">
         <v>99</v>
       </c>
-      <c r="AK10" s="71" t="str">
-        <f>IF(AC10="COMPLETE","false","true")</f>
+      <c r="AK10" s="63" t="str">
+        <f t="shared" si="4"/>
         <v>true</v>
       </c>
-      <c r="AL10" s="71" t="str">
+      <c r="AL10" s="63" t="str">
         <f>IF(AD10="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
     </row>
     <row r="11" spans="1:42" ht="21">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="22" t="s">
+      <c r="AD12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="23" t="s">
+      <c r="AE12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AE12" s="23" t="s">
+      <c r="AH12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG12" s="24" t="s">
+      <c r="AI12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AH12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI12" s="26" t="s">
+      <c r="AJ12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AJ12" s="26" t="s">
+      <c r="AK12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK12" s="26" t="s">
+      <c r="AL12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AL12" s="26" t="s">
+      <c r="AM12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AM12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
     </row>
     <row r="14" spans="1:42" ht="30" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE14" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF14" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH14" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
     </row>
     <row r="15" spans="1:42" ht="34.5" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="47" t="s">
+      <c r="W15" s="42"/>
+      <c r="X15" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="49" t="s">
+      <c r="Y15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="49" t="s">
+      <c r="Z15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="50"/>
-      <c r="X15" s="51" t="s">
+      <c r="AA15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Y15" s="52" t="s">
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="53" t="s">
+      <c r="AD15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AA15" s="54" t="s">
+      <c r="AE15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="56" t="s">
+      <c r="AF15" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AD15" s="57" t="s">
+      <c r="AH15" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AE15" s="57" t="s">
+      <c r="AI15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AF15" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG15" s="58" t="s">
+      <c r="AJ15" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AH15" s="58" t="s">
+      <c r="AK15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AI15" s="59" t="s">
+      <c r="AL15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AJ15" s="60" t="s">
+      <c r="AM15" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AK15" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL15" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM15" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
     </row>
     <row r="16" spans="1:42" ht="86.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="73">
+      <c r="A16" s="4"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="65">
         <v>2</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67" t="str">
+        <f t="shared" ref="U16:U18" si="6">N16</f>
+        <v>email</v>
+      </c>
+      <c r="V16" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="57"/>
+      <c r="X16" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75" t="str">
-        <f>N16</f>
+      <c r="Z16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="60" t="str">
+        <f t="shared" ref="AC16:AC18" si="7">X16</f>
+        <v>Person's email cannot be null</v>
+      </c>
+      <c r="AD16" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="62" t="str">
+        <f t="shared" ref="AG16:AG18" si="8">CONCATENATE( "person",",",U16,",",$X$6,",",C16," [",U16,"] - ",X16,",",X16,",",Y16,",", $Z$6,",",C16," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
+        <v>person,email,en,2 [email] - Person's email cannot be null,Person's email cannot be null,An email with some value different than null,es,2 [email] - El email de la persona no puede ser nulo,El email de la persona no puede ser nulo,Un email con algún valor diferente de nulo,$person.getEmail()</v>
+      </c>
+      <c r="AH16" s="58" t="str">
+        <f t="shared" ref="AH16:AH18" si="9">CONCATENATE("ERROR",",",X16)</f>
+        <v>ERROR,Person's email cannot be null</v>
+      </c>
+      <c r="AI16" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ16" s="64" t="str">
+        <f t="shared" ref="AJ16:AJ18" si="10">U16</f>
         <v>email</v>
       </c>
-      <c r="V16" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" s="65"/>
-      <c r="X16" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y16" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA16" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="68" t="str">
-        <f>X16</f>
-        <v>Person's email cannot be null</v>
-      </c>
-      <c r="AD16" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="70" t="str">
-        <f>CONCATENATE( "person",",",U16,",",$X$6,",",C16," [",U16,"] - ",X16,",",X16,",",Y16,",", $Z$6,",",C16," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
-        <v>person,email,en,2 [email] - Person's email cannot be null,Person's email cannot be null,An email with some value different than null,es,2 [email] - El email de la persona no puede ser nulo,El email de la persona no puede ser nulo,Un email con algún valor diferente de nulo,$person.getEmail()</v>
-      </c>
-      <c r="AH16" s="66" t="str">
-        <f>CONCATENATE("ERROR",",",X16)</f>
-        <v>ERROR,Person's email cannot be null</v>
-      </c>
-      <c r="AI16" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ16" s="72" t="str">
-        <f>U16</f>
-        <v>email</v>
-      </c>
-      <c r="AK16" s="72">
+      <c r="AK16" s="64">
         <v>100</v>
       </c>
-      <c r="AL16" s="71" t="str">
-        <f>IF(AD16="COMPLETE","false","true")</f>
+      <c r="AL16" s="63" t="str">
+        <f t="shared" ref="AL16:AL18" si="11">IF(AD16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AM16" s="71" t="str">
-        <f>IF(AC16="COMPLETE","false","true")</f>
+      <c r="AM16" s="63" t="str">
+        <f t="shared" ref="AM16:AM18" si="12">IF(AC16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
     </row>
     <row r="17" spans="1:41" ht="86.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="73">
+      <c r="A17" s="4"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="65">
         <v>2</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75" t="str">
-        <f>N17</f>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67" t="str">
+        <f t="shared" si="6"/>
         <v>email</v>
       </c>
-      <c r="V17" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="65"/>
-      <c r="X17" s="66" t="s">
+      <c r="V17" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="57"/>
+      <c r="X17" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y17" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z17" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA17" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="Y17" s="66" t="s">
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v>Person's email cannot be empty</v>
+      </c>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="62" t="str">
+        <f t="shared" si="8"/>
+        <v>person,email,en,2 [email] - Person's email cannot be empty,Person's email cannot be empty,An email with some value different than empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
+      </c>
+      <c r="AH17" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ERROR,Person's email cannot be empty</v>
+      </c>
+      <c r="AI17" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ17" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>email</v>
+      </c>
+      <c r="AK17" s="64">
+        <v>99</v>
+      </c>
+      <c r="AL17" s="63" t="str">
+        <f t="shared" si="11"/>
+        <v>true</v>
+      </c>
+      <c r="AM17" s="63" t="str">
+        <f t="shared" si="12"/>
+        <v>true</v>
+      </c>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+    </row>
+    <row r="18" spans="1:41" ht="72">
+      <c r="A18" s="4"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="65">
+        <v>2</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>email</v>
+      </c>
+      <c r="V18" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="57"/>
+      <c r="X18" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Z17" s="66" t="s">
+      <c r="Y18" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="66" t="s">
+      <c r="Z18" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="68" t="str">
-        <f>X17</f>
-        <v>Person's email cannot be empty</v>
-      </c>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="70" t="str">
-        <f>CONCATENATE( "person",",",U17,",",$X$6,",",C17," [",U17,"] - ",X17,",",X17,",",Y17,",", $Z$6,",",C17," [",U17,"] - ",Z17,",",Z17,",",AA17,",","$person.getEmail()")</f>
-        <v>person,email,en,2 [email] - Person's email cannot be empty,Person's email cannot be empty,An email with some value different than empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
-      </c>
-      <c r="AH17" s="66" t="str">
-        <f>CONCATENATE("ERROR",",",X17)</f>
-        <v>ERROR,Person's email cannot be empty</v>
-      </c>
-      <c r="AI17" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ17" s="72" t="str">
-        <f>U17</f>
+      <c r="AA18" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v>Person's email is not valid</v>
+      </c>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG18" s="62" t="str">
+        <f t="shared" si="8"/>
+        <v>person,email,en,2 [email] - Person's email is not valid,Person's email is not valid,A valid email,es,2 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
+      </c>
+      <c r="AH18" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ERROR,Person's email is not valid</v>
+      </c>
+      <c r="AI18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ18" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>email</v>
       </c>
-      <c r="AK17" s="72">
-        <v>99</v>
-      </c>
-      <c r="AL17" s="71" t="str">
-        <f>IF(AD17="COMPLETE","false","true")</f>
+      <c r="AK18" s="64">
+        <v>98</v>
+      </c>
+      <c r="AL18" s="63" t="str">
+        <f t="shared" si="11"/>
         <v>true</v>
       </c>
-      <c r="AM17" s="71" t="str">
-        <f>IF(AC17="COMPLETE","false","true")</f>
+      <c r="AM18" s="63" t="str">
+        <f t="shared" si="12"/>
         <v>true</v>
       </c>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
     </row>
-    <row r="18" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="73">
-        <v>2</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75" t="str">
-        <f>N18</f>
-        <v>email</v>
-      </c>
-      <c r="V18" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="65"/>
-      <c r="X18" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y18" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA18" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="68" t="str">
-        <f>X18</f>
-        <v>Person's email is not valid</v>
-      </c>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG18" s="70" t="str">
-        <f>CONCATENATE( "person",",",U18,",",$X$6,",",C18," [",U18,"] - ",X18,",",X18,",",Y18,",", $Z$6,",",C18," [",U18,"] - ",Z18,",",Z18,",",AA18,",","$person.getEmail()")</f>
-        <v>person,email,en,2 [email] - Person's email is not valid,Person's email is not valid,A valid email,es,2 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
-      </c>
-      <c r="AH18" s="66" t="str">
-        <f>CONCATENATE("ERROR",",",X18)</f>
-        <v>ERROR,Person's email is not valid</v>
-      </c>
-      <c r="AI18" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ18" s="72" t="str">
-        <f>U18</f>
-        <v>email</v>
-      </c>
-      <c r="AK18" s="72">
-        <v>98</v>
-      </c>
-      <c r="AL18" s="71" t="str">
-        <f>IF(AD18="COMPLETE","false","true")</f>
-        <v>true</v>
-      </c>
-      <c r="AM18" s="71" t="str">
-        <f>IF(AC18="COMPLETE","false","true")</f>
-        <v>true</v>
-      </c>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-    </row>
+    <row r="21" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="B11:AM11"/>
     <mergeCell ref="C12:AA12"/>
     <mergeCell ref="X13:Y13"/>
     <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="B4:AL4"/>
     <mergeCell ref="C5:AA5"/>
+    <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AD6:AE6"/>
   </mergeCells>
   <conditionalFormatting sqref="W1:W3">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Enabled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W3">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Disabled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AC8 AG5:AG8 X6:X8 Z6:Z8 AD6:AD7 Y7:Y8 AA7:AA8 AH12:AH15 AD14">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AC8 AG5:AG8 X6:X8 Z6:Z8 AD6:AD7 Y7:Y8 AA7:AA8 AH12:AH15 AD14">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W3">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Scheduled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W3">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"Disabled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AC8 AG5:AG8 X6:X8 Z6:Z8 AD6:AD7 Y7:Y8 AA7:AA8 AH12:AH15 AD14">
-    <cfRule type="beginsWith" dxfId="21" priority="8" operator="beginsWith" text="COMPLETE">
-      <formula>LEFT(X6,LEN("COMPLETE"))="COMPLETE"</formula>
+    <cfRule type="beginsWith" dxfId="21" priority="7" operator="beginsWith" text="COMPLETE">
+      <formula>LEFT((AB5),LEN("COMPLETE"))=("COMPLETE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8">
-    <cfRule type="beginsWith" dxfId="18" priority="11" operator="beginsWith" text="COMPLETE">
-      <formula>LEFT(AF8,LEN("COMPLETE"))="COMPLETE"</formula>
+    <cfRule type="beginsWith" dxfId="18" priority="10" operator="beginsWith" text="COMPLETE">
+      <formula>LEFT((AF8),LEN("COMPLETE"))=("COMPLETE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12:AC15 X13:X15 Z13:Z15 Y14:Y15 AA14:AA15">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12:AC15 X13:X15 Z13:Z15 Y14:Y15 AA14:AA15">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12:AC15 X13:X15 Z13:Z15 Y14:Y15 AA14:AA15">
-    <cfRule type="beginsWith" dxfId="15" priority="14" operator="beginsWith" text="COMPLETE">
-      <formula>LEFT(X13,LEN("COMPLETE"))="COMPLETE"</formula>
+    <cfRule type="beginsWith" dxfId="15" priority="13" operator="beginsWith" text="COMPLETE">
+      <formula>LEFT((AB12),LEN("COMPLETE"))=("COMPLETE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15">
-    <cfRule type="beginsWith" dxfId="12" priority="17" operator="beginsWith" text="COMPLETE">
-      <formula>LEFT(AG15,LEN("COMPLETE"))="COMPLETE"</formula>
+    <cfRule type="beginsWith" dxfId="12" priority="16" operator="beginsWith" text="COMPLETE">
+      <formula>LEFT((AG15),LEN("COMPLETE"))=("COMPLETE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14">
-    <cfRule type="beginsWith" dxfId="9" priority="20" operator="beginsWith" text="COMPLETE">
-      <formula>LEFT(AF14,LEN("COMPLETE"))="COMPLETE"</formula>
+    <cfRule type="beginsWith" dxfId="9" priority="19" operator="beginsWith" text="COMPLETE">
+      <formula>LEFT((AF14),LEN("COMPLETE"))=("COMPLETE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13">
-    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13">
-    <cfRule type="beginsWith" dxfId="6" priority="23" operator="beginsWith" text="COMPLETE">
-      <formula>LEFT(AD13,LEN("COMPLETE"))="COMPLETE"</formula>
+    <cfRule type="beginsWith" dxfId="6" priority="22" operator="beginsWith" text="COMPLETE">
+      <formula>LEFT((AD13),LEN("COMPLETE"))=("COMPLETE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="5" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="4" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7">
-    <cfRule type="beginsWith" dxfId="3" priority="26" operator="beginsWith" text="COMPLETE">
-      <formula>LEFT(AE7,LEN("COMPLETE"))="COMPLETE"</formula>
+    <cfRule type="beginsWith" dxfId="3" priority="25" operator="beginsWith" text="COMPLETE">
+      <formula>LEFT((AE7),LEN("COMPLETE"))=("COMPLETE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14">
-    <cfRule type="beginsWith" dxfId="0" priority="29" operator="beginsWith" text="COMPLETE">
-      <formula>LEFT(AE14,LEN("COMPLETE"))="COMPLETE"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="28" operator="beginsWith" text="COMPLETE">
+      <formula>LEFT((AE14),LEN("COMPLETE"))=("COMPLETE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/rules.xlsx
+++ b/src/test/resources/rules.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>RuleSet</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>getFirstName() != null &amp;&amp; getFirstName() $param  ""</t>
-  </si>
-  <si>
-    <t>RuleLogging.log("$1", "Rule - $2 - fired");</t>
   </si>
   <si>
     <t>Catalogue</t>
@@ -239,9 +236,18 @@
     <t>$person : Person</t>
   </si>
   <si>
-    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2", null);                
+    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$10);                
 insert( errorEn );
-RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2", null);        
+RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2",$10);        
+insert( errorEs );</t>
+  </si>
+  <si>
+    <t>RuleLogging.log("$1", "Rule - $2 - fired");</t>
+  </si>
+  <si>
+    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$10);                
+insert( errorEn );
+RuleMessageError errorEs = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$10);        
 insert( errorEs );</t>
   </si>
 </sst>
@@ -973,6 +979,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,16 +992,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1498,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA11" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF15" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1526,7 +1532,7 @@
     <col min="29" max="29" width="26.5546875" customWidth="1"/>
     <col min="30" max="30" width="45.5546875" customWidth="1"/>
     <col min="31" max="31" width="33.109375" customWidth="1"/>
-    <col min="32" max="32" width="27.88671875" customWidth="1"/>
+    <col min="32" max="32" width="38.6640625" customWidth="1"/>
     <col min="33" max="33" width="44.33203125" customWidth="1"/>
     <col min="34" max="34" width="20" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
@@ -1619,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="AD2" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -1680,45 +1686,45 @@
     </row>
     <row r="4" spans="1:42" ht="21">
       <c r="A4" s="3"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="73"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="76"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
@@ -1726,33 +1732,33 @@
     <row r="5" spans="1:42" ht="15" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="73"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="76"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="13" t="s">
         <v>4</v>
@@ -1812,20 +1818,20 @@
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="12"/>
-      <c r="X6" s="77" t="s">
+      <c r="X6" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="77" t="s">
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="79"/>
+      <c r="AA6" s="80"/>
       <c r="AB6" s="23"/>
       <c r="AC6" s="24"/>
-      <c r="AD6" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE6" s="76"/>
+      <c r="AD6" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE6" s="73"/>
       <c r="AF6" s="25"/>
       <c r="AG6" s="26"/>
       <c r="AH6" s="20"/>
@@ -1874,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="AF7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG7" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="AG7" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="AH7" s="20"/>
       <c r="AI7" s="20"/>
@@ -1892,7 +1898,7 @@
       <c r="A8" s="37"/>
       <c r="B8" s="38"/>
       <c r="C8" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -1905,7 +1911,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -1914,54 +1920,54 @@
       <c r="S8" s="40"/>
       <c r="T8" s="40"/>
       <c r="U8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" s="41" t="s">
         <v>19</v>
-      </c>
-      <c r="V8" s="41" t="s">
-        <v>20</v>
       </c>
       <c r="W8" s="42"/>
       <c r="X8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="44" t="s">
+      <c r="Z8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="45" t="s">
+      <c r="AA8" s="46" t="s">
         <v>23</v>
-      </c>
-      <c r="AA8" s="46" t="s">
-        <v>24</v>
       </c>
       <c r="AB8" s="47"/>
       <c r="AC8" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AD8" s="49" t="s">
+      <c r="AE8" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AE8" s="49" t="s">
+      <c r="AF8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="50" t="s">
+      <c r="AG8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AG8" s="50" t="s">
+      <c r="AH8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AH8" s="51" t="s">
+      <c r="AI8" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="52" t="s">
+      <c r="AJ8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AJ8" s="52" t="s">
+      <c r="AK8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AK8" s="52" t="s">
+      <c r="AL8" s="51" t="s">
         <v>33</v>
-      </c>
-      <c r="AL8" s="51" t="s">
-        <v>34</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
@@ -1984,7 +1990,7 @@
       <c r="L9" s="54"/>
       <c r="M9" s="54"/>
       <c r="N9" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O9" s="56"/>
       <c r="P9" s="56"/>
@@ -1997,20 +2003,20 @@
         <v>firstName</v>
       </c>
       <c r="V9" s="56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="58" t="s">
+      <c r="Z9" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="58" t="s">
+      <c r="AA9" s="58" t="s">
         <v>39</v>
-      </c>
-      <c r="AA9" s="58" t="s">
-        <v>40</v>
       </c>
       <c r="AB9" s="59"/>
       <c r="AC9" s="60" t="str">
@@ -2018,7 +2024,7 @@
         <v>Person's first name cannot be null</v>
       </c>
       <c r="AD9" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE9" s="61"/>
       <c r="AF9" s="62" t="str">
@@ -2030,7 +2036,7 @@
         <v>ERROR,Person's first name cannot be null</v>
       </c>
       <c r="AH9" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI9" s="64" t="str">
         <f t="shared" ref="AI9:AI10" si="3">U9</f>
@@ -2044,13 +2050,13 @@
         <v>true</v>
       </c>
       <c r="AL9" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
     </row>
-    <row r="10" spans="1:42" ht="172.8">
+    <row r="10" spans="1:42" ht="115.2">
       <c r="A10" s="4"/>
       <c r="B10" s="53"/>
       <c r="C10" s="54">
@@ -2067,7 +2073,7 @@
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
       <c r="N10" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="56"/>
       <c r="P10" s="56"/>
@@ -2080,20 +2086,20 @@
         <v>firstName</v>
       </c>
       <c r="V10" s="56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W10" s="57"/>
       <c r="X10" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" s="58" t="s">
+      <c r="Z10" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="Z10" s="58" t="s">
+      <c r="AA10" s="58" t="s">
         <v>45</v>
-      </c>
-      <c r="AA10" s="58" t="s">
-        <v>46</v>
       </c>
       <c r="AB10" s="59"/>
       <c r="AC10" s="60" t="str">
@@ -2102,10 +2108,10 @@
       </c>
       <c r="AD10" s="61"/>
       <c r="AE10" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF10" s="62" t="str">
-        <f t="shared" ref="AF10" si="5">CONCATENATE( "person",",",U10,",",$X$6,",",C10," [",U10,"] - ",X10,",",X10,",",Y10,",", $Z$6,",",C10," [",U10,"] - ",Z10,",",Z10,",",AA10,",","$person.getFirstName()")</f>
+        <f>CONCATENATE( "person",",",U10,",",$X$6,",",C10," [",U10,"] - ",X10,",",X10,",",Y10,",", $Z$6,",",C10," [",U10,"] - ",Z10,",",Z10,",",AA10,",","$person.getFirstName()")</f>
         <v>person,firstName,en,1 [firstName] - Person's first name cannot be empty,Person's first name cannot be empty,A name with some value different than empty,es,1 [firstName] - El primer nombre de la persona no pude ser vacío,El primer nombre de la persona no pude ser vacío,Un nombre con algún valor diferente de vacío,$person.getFirstName()</v>
       </c>
       <c r="AG10" s="58" t="str">
@@ -2113,7 +2119,7 @@
         <v>ERROR,Person's first name cannot be empty</v>
       </c>
       <c r="AH10" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI10" s="64" t="str">
         <f t="shared" si="3"/>
@@ -2136,79 +2142,79 @@
     </row>
     <row r="11" spans="1:42" ht="21">
       <c r="A11" s="3"/>
-      <c r="B11" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="73"/>
+      <c r="B11" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="76"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="73"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="76"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="13" t="s">
         <v>4</v>
@@ -2270,21 +2276,21 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="12"/>
-      <c r="X13" s="77" t="s">
+      <c r="X13" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="77" t="s">
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AA13" s="79"/>
+      <c r="AA13" s="80"/>
       <c r="AB13" s="23"/>
       <c r="AC13" s="24"/>
-      <c r="AD13" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="76"/>
+      <c r="AD13" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="73"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="26"/>
       <c r="AI13" s="20"/>
@@ -2295,7 +2301,7 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
     </row>
-    <row r="14" spans="1:42" ht="30" customHeight="1">
+    <row r="14" spans="1:42" ht="131.4" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="19"/>
@@ -2326,19 +2332,19 @@
       <c r="AB14" s="32"/>
       <c r="AC14" s="33"/>
       <c r="AD14" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AE14" s="34" t="s">
+      <c r="AF14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF14" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="AG14" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH14" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="AH14" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="AI14" s="20"/>
       <c r="AJ14" s="20"/>
@@ -2352,7 +2358,7 @@
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -2365,7 +2371,7 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
@@ -2374,57 +2380,57 @@
       <c r="S15" s="40"/>
       <c r="T15" s="40"/>
       <c r="U15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="41" t="s">
         <v>19</v>
-      </c>
-      <c r="V15" s="41" t="s">
-        <v>20</v>
       </c>
       <c r="W15" s="42"/>
       <c r="X15" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Y15" s="44" t="s">
+      <c r="Z15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="Z15" s="45" t="s">
+      <c r="AA15" s="46" t="s">
         <v>23</v>
-      </c>
-      <c r="AA15" s="46" t="s">
-        <v>24</v>
       </c>
       <c r="AB15" s="47"/>
       <c r="AC15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AD15" s="49" t="s">
+      <c r="AE15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AE15" s="49" t="s">
+      <c r="AF15" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG15" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AF15" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG15" s="50" t="s">
+      <c r="AH15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AH15" s="50" t="s">
+      <c r="AI15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AI15" s="51" t="s">
+      <c r="AJ15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AJ15" s="52" t="s">
+      <c r="AK15" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AK15" s="52" t="s">
+      <c r="AL15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AL15" s="52" t="s">
+      <c r="AM15" s="51" t="s">
         <v>33</v>
-      </c>
-      <c r="AM15" s="51" t="s">
-        <v>34</v>
       </c>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
@@ -2446,7 +2452,7 @@
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="67"/>
       <c r="P16" s="67"/>
@@ -2455,59 +2461,59 @@
       <c r="S16" s="67"/>
       <c r="T16" s="67"/>
       <c r="U16" s="67" t="str">
-        <f t="shared" ref="U16:U18" si="6">N16</f>
+        <f t="shared" ref="U16:U18" si="5">N16</f>
         <v>email</v>
       </c>
       <c r="V16" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W16" s="57"/>
       <c r="X16" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y16" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="Y16" s="58" t="s">
+      <c r="Z16" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="Z16" s="58" t="s">
+      <c r="AA16" s="58" t="s">
         <v>56</v>
-      </c>
-      <c r="AA16" s="58" t="s">
-        <v>57</v>
       </c>
       <c r="AB16" s="59"/>
       <c r="AC16" s="60" t="str">
-        <f t="shared" ref="AC16:AC18" si="7">X16</f>
+        <f t="shared" ref="AC16:AC18" si="6">X16</f>
         <v>Person's email cannot be null</v>
       </c>
       <c r="AD16" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE16" s="68"/>
       <c r="AF16" s="61"/>
       <c r="AG16" s="62" t="str">
-        <f t="shared" ref="AG16:AG18" si="8">CONCATENATE( "person",",",U16,",",$X$6,",",C16," [",U16,"] - ",X16,",",X16,",",Y16,",", $Z$6,",",C16," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
+        <f>CONCATENATE( "person",",",U16,",",$X$6,",",C16," [",U16,"] - ",X16,",",X16,",",Y16,",", $Z$6,",",C16," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
         <v>person,email,en,2 [email] - Person's email cannot be null,Person's email cannot be null,An email with some value different than null,es,2 [email] - El email de la persona no puede ser nulo,El email de la persona no puede ser nulo,Un email con algún valor diferente de nulo,$person.getEmail()</v>
       </c>
       <c r="AH16" s="58" t="str">
-        <f t="shared" ref="AH16:AH18" si="9">CONCATENATE("ERROR",",",X16)</f>
+        <f t="shared" ref="AH16:AH18" si="7">CONCATENATE("ERROR",",",X16)</f>
         <v>ERROR,Person's email cannot be null</v>
       </c>
       <c r="AI16" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ16" s="64" t="str">
-        <f t="shared" ref="AJ16:AJ18" si="10">U16</f>
+        <f t="shared" ref="AJ16:AJ18" si="8">U16</f>
         <v>email</v>
       </c>
       <c r="AK16" s="64">
         <v>100</v>
       </c>
       <c r="AL16" s="63" t="str">
-        <f t="shared" ref="AL16:AL18" si="11">IF(AD16="COMPLETE","false","true")</f>
+        <f t="shared" ref="AL16:AL18" si="9">IF(AD16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
       <c r="AM16" s="63" t="str">
-        <f t="shared" ref="AM16:AM18" si="12">IF(AC16="COMPLETE","false","true")</f>
+        <f t="shared" ref="AM16:AM18" si="10">IF(AC16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
       <c r="AN16" s="4"/>
@@ -2530,7 +2536,7 @@
       <c r="L17" s="65"/>
       <c r="M17" s="65"/>
       <c r="N17" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="67"/>
       <c r="P17" s="67"/>
@@ -2539,65 +2545,65 @@
       <c r="S17" s="67"/>
       <c r="T17" s="67"/>
       <c r="U17" s="67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>email</v>
       </c>
       <c r="V17" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W17" s="57"/>
       <c r="X17" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="58" t="s">
+      <c r="Z17" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="Z17" s="58" t="s">
+      <c r="AA17" s="58" t="s">
         <v>60</v>
-      </c>
-      <c r="AA17" s="58" t="s">
-        <v>61</v>
       </c>
       <c r="AB17" s="59"/>
       <c r="AC17" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Person's email cannot be empty</v>
       </c>
       <c r="AD17" s="64"/>
       <c r="AE17" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF17" s="69"/>
       <c r="AG17" s="62" t="str">
+        <f t="shared" ref="AG17:AG18" si="11">CONCATENATE( "person",",",U17,",",$X$6,",",C17," [",U17,"] - ",X17,",",X17,",",Y17,",", $Z$6,",",C17," [",U17,"] - ",Z17,",",Z17,",",AA17,",","$person.getEmail()")</f>
+        <v>person,email,en,2 [email] - Person's email cannot be empty,Person's email cannot be empty,An email with some value different than empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
+      </c>
+      <c r="AH17" s="58" t="str">
+        <f t="shared" si="7"/>
+        <v>ERROR,Person's email cannot be empty</v>
+      </c>
+      <c r="AI17" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ17" s="64" t="str">
         <f t="shared" si="8"/>
-        <v>person,email,en,2 [email] - Person's email cannot be empty,Person's email cannot be empty,An email with some value different than empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
-      </c>
-      <c r="AH17" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v>ERROR,Person's email cannot be empty</v>
-      </c>
-      <c r="AI17" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ17" s="64" t="str">
-        <f t="shared" si="10"/>
         <v>email</v>
       </c>
       <c r="AK17" s="64">
         <v>99</v>
       </c>
       <c r="AL17" s="63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="AM17" s="63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>true</v>
       </c>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
     </row>
-    <row r="18" spans="1:41" ht="72">
+    <row r="18" spans="1:41" ht="86.4">
       <c r="A18" s="4"/>
       <c r="B18" s="53"/>
       <c r="C18" s="65">
@@ -2614,7 +2620,7 @@
       <c r="L18" s="65"/>
       <c r="M18" s="65"/>
       <c r="N18" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="67"/>
       <c r="P18" s="67"/>
@@ -2623,59 +2629,59 @@
       <c r="S18" s="67"/>
       <c r="T18" s="67"/>
       <c r="U18" s="67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>email</v>
       </c>
       <c r="V18" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W18" s="57"/>
       <c r="X18" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y18" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Y18" s="60" t="s">
+      <c r="Z18" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="Z18" s="60" t="s">
+      <c r="AA18" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="AA18" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="AB18" s="59"/>
       <c r="AC18" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Person's email is not valid</v>
       </c>
       <c r="AD18" s="64"/>
       <c r="AE18" s="64"/>
       <c r="AF18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG18" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v>person,email,en,2 [email] - Person's email is not valid,Person's email is not valid,A valid email,es,2 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
+      </c>
+      <c r="AH18" s="58" t="str">
+        <f t="shared" si="7"/>
+        <v>ERROR,Person's email is not valid</v>
+      </c>
+      <c r="AI18" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AG18" s="62" t="str">
+      <c r="AJ18" s="64" t="str">
         <f t="shared" si="8"/>
-        <v>person,email,en,2 [email] - Person's email is not valid,Person's email is not valid,A valid email,es,2 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
-      </c>
-      <c r="AH18" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v>ERROR,Person's email is not valid</v>
-      </c>
-      <c r="AI18" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ18" s="64" t="str">
-        <f t="shared" si="10"/>
         <v>email</v>
       </c>
       <c r="AK18" s="64">
         <v>98</v>
       </c>
       <c r="AL18" s="63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="AM18" s="63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>true</v>
       </c>
       <c r="AN18" s="4"/>
@@ -3663,16 +3669,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="C5:AA5"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="B11:AM11"/>
     <mergeCell ref="C12:AA12"/>
     <mergeCell ref="X13:Y13"/>
     <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="C5:AA5"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="W1:W3">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">

--- a/src/test/resources/rules.xlsx
+++ b/src/test/resources/rules.xlsx
@@ -236,18 +236,18 @@
     <t>$person : Person</t>
   </si>
   <si>
-    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$10);                
+    <t>RuleLogging.log("$1", "Rule - $2 - fired");</t>
+  </si>
+  <si>
+    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$11);                
 insert( errorEn );
-RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2",$10);        
+RuleMessageError errorEs = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$11);        
 insert( errorEs );</t>
   </si>
   <si>
-    <t>RuleLogging.log("$1", "Rule - $2 - fired");</t>
-  </si>
-  <si>
-    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$10);                
+    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$11);                
 insert( errorEn );
-RuleMessageError errorEs = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$10);        
+RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2",$11);        
 insert( errorEs );</t>
   </si>
 </sst>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF15" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W4" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16:AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1880,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="AF7" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG7" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="20"/>
       <c r="AI7" s="20"/>
@@ -1973,7 +1973,7 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:42" ht="172.8">
+    <row r="9" spans="1:42" ht="144">
       <c r="A9" s="4"/>
       <c r="B9" s="53"/>
       <c r="C9" s="54">
@@ -2028,25 +2028,25 @@
       </c>
       <c r="AE9" s="61"/>
       <c r="AF9" s="62" t="str">
-        <f>CONCATENATE( "person",",",U9,",",$X$6,",",C9," [",U9,"] - ",X9,",",X9,",",Y9,",", $Z$6,",",C9," [",U9,"] - ",Z9,",",Z9,",",AA9,",","$person.getFirstName()")</f>
-        <v>person,firstName,en,1 [firstName] - Person's first name cannot be null,Person's first name cannot be null,A name with some value different than null,es,1 [firstName] - El primer nombre de la persona no pude ser nulo,El primer nombre de la persona no pude ser nulo,Un nombre con algún valor diferente de nulo,$person.getFirstName()</v>
+        <f>CONCATENATE( "person",",",U9,",",$X$6,",",C9," [",U9,"] - ",_xlfn.ENCODEURL(X9),",",_xlfn.ENCODEURL(X9),",",_xlfn.ENCODEURL(Y9),",", $Z$6,",",C9," [",U9,"] - ",Z9,",",Z9,",",AA9,",","$person.getFirstName()")</f>
+        <v>person,firstName,en,1 [firstName] - Person%27s%20first%20name%20cannot%20be%20null,Person%27s%20first%20name%20cannot%20be%20null,A%20name%20with%20some%20value%20different%20than%20null,es,1 [firstName] - El primer nombre de la persona no pude ser nulo,El primer nombre de la persona no pude ser nulo,Un nombre con algún valor diferente de nulo,$person.getFirstName()</v>
       </c>
       <c r="AG9" s="58" t="str">
-        <f t="shared" ref="AG9:AG10" si="2">CONCATENATE("ERROR",",",X9)</f>
-        <v>ERROR,Person's first name cannot be null</v>
+        <f>CONCATENATE("ERROR",",",_xlfn.ENCODEURL(X9))</f>
+        <v>ERROR,Person%27s%20first%20name%20cannot%20be%20null</v>
       </c>
       <c r="AH9" s="63" t="s">
         <v>41</v>
       </c>
       <c r="AI9" s="64" t="str">
-        <f t="shared" ref="AI9:AI10" si="3">U9</f>
+        <f t="shared" ref="AI9:AI10" si="2">U9</f>
         <v>firstName</v>
       </c>
       <c r="AJ9" s="64">
         <v>100</v>
       </c>
       <c r="AK9" s="63" t="str">
-        <f t="shared" ref="AK9:AK10" si="4">IF(AC9="COMPLETE","false","true")</f>
+        <f t="shared" ref="AK9:AK10" si="3">IF(AC9="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
       <c r="AL9" s="63" t="s">
@@ -2056,7 +2056,7 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
     </row>
-    <row r="10" spans="1:42" ht="115.2">
+    <row r="10" spans="1:42" ht="144">
       <c r="A10" s="4"/>
       <c r="B10" s="53"/>
       <c r="C10" s="54">
@@ -2111,25 +2111,25 @@
         <v>40</v>
       </c>
       <c r="AF10" s="62" t="str">
-        <f>CONCATENATE( "person",",",U10,",",$X$6,",",C10," [",U10,"] - ",X10,",",X10,",",Y10,",", $Z$6,",",C10," [",U10,"] - ",Z10,",",Z10,",",AA10,",","$person.getFirstName()")</f>
-        <v>person,firstName,en,1 [firstName] - Person's first name cannot be empty,Person's first name cannot be empty,A name with some value different than empty,es,1 [firstName] - El primer nombre de la persona no pude ser vacío,El primer nombre de la persona no pude ser vacío,Un nombre con algún valor diferente de vacío,$person.getFirstName()</v>
+        <f>CONCATENATE( "person",",",U10,",",$X$6,",",C10," [",U10,"] - ",_xlfn.ENCODEURL(X10),",",_xlfn.ENCODEURL(X10),",",_xlfn.ENCODEURL(Y10),",", $Z$6,",",C10," [",U10,"] - ",Z10,",",Z10,",",AA10,",","$person.getFirstName()")</f>
+        <v>person,firstName,en,1 [firstName] - Person%27s%20first%20name%20cannot%20be%20empty,Person%27s%20first%20name%20cannot%20be%20empty,A%20name%20with%20some%20value%20different%20than%20empty,es,1 [firstName] - El primer nombre de la persona no pude ser vacío,El primer nombre de la persona no pude ser vacío,Un nombre con algún valor diferente de vacío,$person.getFirstName()</v>
       </c>
       <c r="AG10" s="58" t="str">
-        <f t="shared" si="2"/>
-        <v>ERROR,Person's first name cannot be empty</v>
+        <f>CONCATENATE("ERROR",",",_xlfn.ENCODEURL(X10))</f>
+        <v>ERROR,Person%27s%20first%20name%20cannot%20be%20empty</v>
       </c>
       <c r="AH10" s="63" t="s">
         <v>41</v>
       </c>
       <c r="AI10" s="64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>firstName</v>
       </c>
       <c r="AJ10" s="64">
         <v>99</v>
       </c>
       <c r="AK10" s="63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="AL10" s="63" t="str">
@@ -2341,10 +2341,10 @@
         <v>49</v>
       </c>
       <c r="AG14" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH14" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="AH14" s="36" t="s">
-        <v>71</v>
       </c>
       <c r="AI14" s="20"/>
       <c r="AJ14" s="20"/>
@@ -2435,7 +2435,7 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:42" ht="86.4">
+    <row r="16" spans="1:42" ht="115.2">
       <c r="A16" s="4"/>
       <c r="B16" s="53"/>
       <c r="C16" s="65">
@@ -2461,7 +2461,7 @@
       <c r="S16" s="67"/>
       <c r="T16" s="67"/>
       <c r="U16" s="67" t="str">
-        <f t="shared" ref="U16:U18" si="5">N16</f>
+        <f t="shared" ref="U16:U18" si="4">N16</f>
         <v>email</v>
       </c>
       <c r="V16" s="67" t="s">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="AB16" s="59"/>
       <c r="AC16" s="60" t="str">
-        <f t="shared" ref="AC16:AC18" si="6">X16</f>
+        <f t="shared" ref="AC16:AC18" si="5">X16</f>
         <v>Person's email cannot be null</v>
       </c>
       <c r="AD16" s="61" t="s">
@@ -2491,35 +2491,35 @@
       <c r="AE16" s="68"/>
       <c r="AF16" s="61"/>
       <c r="AG16" s="62" t="str">
-        <f>CONCATENATE( "person",",",U16,",",$X$6,",",C16," [",U16,"] - ",X16,",",X16,",",Y16,",", $Z$6,",",C16," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
-        <v>person,email,en,2 [email] - Person's email cannot be null,Person's email cannot be null,An email with some value different than null,es,2 [email] - El email de la persona no puede ser nulo,El email de la persona no puede ser nulo,Un email con algún valor diferente de nulo,$person.getEmail()</v>
+        <f>CONCATENATE( "person",",",U16,",",$X$6,",",C16," [",U16,"] - ",_xlfn.ENCODEURL(X16),",",_xlfn.ENCODEURL(X16),",",_xlfn.ENCODEURL(Y16),",", $Z$6,",",C16," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
+        <v>person,email,en,2 [email] - Person%27s%20email%20cannot%20be%20null,Person%27s%20email%20cannot%20be%20null,An%20email%20with%20some%20value%20different%20than%20null,es,2 [email] - El email de la persona no puede ser nulo,El email de la persona no puede ser nulo,Un email con algún valor diferente de nulo,$person.getEmail()</v>
       </c>
       <c r="AH16" s="58" t="str">
-        <f t="shared" ref="AH16:AH18" si="7">CONCATENATE("ERROR",",",X16)</f>
-        <v>ERROR,Person's email cannot be null</v>
+        <f>CONCATENATE("ERROR",",",_xlfn.ENCODEURL(X16))</f>
+        <v>ERROR,Person%27s%20email%20cannot%20be%20null</v>
       </c>
       <c r="AI16" s="63" t="s">
         <v>41</v>
       </c>
       <c r="AJ16" s="64" t="str">
-        <f t="shared" ref="AJ16:AJ18" si="8">U16</f>
+        <f t="shared" ref="AJ16:AJ18" si="6">U16</f>
         <v>email</v>
       </c>
       <c r="AK16" s="64">
         <v>100</v>
       </c>
       <c r="AL16" s="63" t="str">
-        <f t="shared" ref="AL16:AL18" si="9">IF(AD16="COMPLETE","false","true")</f>
+        <f t="shared" ref="AL16:AL18" si="7">IF(AD16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
       <c r="AM16" s="63" t="str">
-        <f t="shared" ref="AM16:AM18" si="10">IF(AC16="COMPLETE","false","true")</f>
+        <f t="shared" ref="AM16:AM18" si="8">IF(AC16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
     </row>
-    <row r="17" spans="1:41" ht="86.4">
+    <row r="17" spans="1:41" ht="115.2">
       <c r="A17" s="4"/>
       <c r="B17" s="53"/>
       <c r="C17" s="65">
@@ -2545,7 +2545,7 @@
       <c r="S17" s="67"/>
       <c r="T17" s="67"/>
       <c r="U17" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>email</v>
       </c>
       <c r="V17" s="67" t="s">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="AB17" s="59"/>
       <c r="AC17" s="60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Person's email cannot be empty</v>
       </c>
       <c r="AD17" s="64"/>
@@ -2575,29 +2575,29 @@
       </c>
       <c r="AF17" s="69"/>
       <c r="AG17" s="62" t="str">
-        <f t="shared" ref="AG17:AG18" si="11">CONCATENATE( "person",",",U17,",",$X$6,",",C17," [",U17,"] - ",X17,",",X17,",",Y17,",", $Z$6,",",C17," [",U17,"] - ",Z17,",",Z17,",",AA17,",","$person.getEmail()")</f>
-        <v>person,email,en,2 [email] - Person's email cannot be empty,Person's email cannot be empty,An email with some value different than empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
+        <f t="shared" ref="AG17:AG18" si="9">CONCATENATE( "person",",",U17,",",$X$6,",",C17," [",U17,"] - ",_xlfn.ENCODEURL(X17),",",_xlfn.ENCODEURL(X17),",",_xlfn.ENCODEURL(Y17),",", $Z$6,",",C17," [",U17,"] - ",Z17,",",Z17,",",AA17,",","$person.getEmail()")</f>
+        <v>person,email,en,2 [email] - Person%27s%20email%20cannot%20be%20empty,Person%27s%20email%20cannot%20be%20empty,An%20email%20with%20some%20value%20different%20than%20empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
       </c>
       <c r="AH17" s="58" t="str">
-        <f t="shared" si="7"/>
-        <v>ERROR,Person's email cannot be empty</v>
+        <f t="shared" ref="AH17:AH18" si="10">CONCATENATE("ERROR",",",_xlfn.ENCODEURL(X17))</f>
+        <v>ERROR,Person%27s%20email%20cannot%20be%20empty</v>
       </c>
       <c r="AI17" s="63" t="s">
         <v>41</v>
       </c>
       <c r="AJ17" s="64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>email</v>
       </c>
       <c r="AK17" s="64">
         <v>99</v>
       </c>
       <c r="AL17" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>true</v>
       </c>
       <c r="AM17" s="63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>true</v>
       </c>
       <c r="AN17" s="4"/>
@@ -2629,7 +2629,7 @@
       <c r="S18" s="67"/>
       <c r="T18" s="67"/>
       <c r="U18" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>email</v>
       </c>
       <c r="V18" s="67" t="s">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="AB18" s="59"/>
       <c r="AC18" s="60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Person's email is not valid</v>
       </c>
       <c r="AD18" s="64"/>
@@ -2659,29 +2659,29 @@
         <v>65</v>
       </c>
       <c r="AG18" s="62" t="str">
-        <f t="shared" si="11"/>
-        <v>person,email,en,2 [email] - Person's email is not valid,Person's email is not valid,A valid email,es,2 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
+        <f t="shared" si="9"/>
+        <v>person,email,en,2 [email] - Person%27s%20email%20is%20not%20valid,Person%27s%20email%20is%20not%20valid,A%20valid%20email,es,2 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
       </c>
       <c r="AH18" s="58" t="str">
-        <f t="shared" si="7"/>
-        <v>ERROR,Person's email is not valid</v>
+        <f t="shared" si="10"/>
+        <v>ERROR,Person%27s%20email%20is%20not%20valid</v>
       </c>
       <c r="AI18" s="63" t="s">
         <v>66</v>
       </c>
       <c r="AJ18" s="64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>email</v>
       </c>
       <c r="AK18" s="64">
         <v>98</v>
       </c>
       <c r="AL18" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>true</v>
       </c>
       <c r="AM18" s="63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>true</v>
       </c>
       <c r="AN18" s="4"/>

--- a/src/test/resources/rules.xlsx
+++ b/src/test/resources/rules.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>RuleSet</t>
   </si>
@@ -237,12 +237,6 @@
   </si>
   <si>
     <t>RuleLogging.log("$1", "Rule - $2 - fired");</t>
-  </si>
-  <si>
-    <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$11);                
-insert( errorEn );
-RuleMessageError errorEs = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$11);        
-insert( errorEs );</t>
   </si>
   <si>
     <t>RuleMessageError errorEn = new RuleMessageError("$3", "$4", "$5", "$6", "$1", "$2",$11);                
@@ -979,11 +973,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,11 +981,16 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1504,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W4" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16:AH18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1686,45 +1680,45 @@
     </row>
     <row r="4" spans="1:42" ht="21">
       <c r="A4" s="3"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="76"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="73"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
@@ -1732,33 +1726,33 @@
     <row r="5" spans="1:42" ht="15" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="76"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="73"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="13" t="s">
         <v>4</v>
@@ -1818,20 +1812,20 @@
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="12"/>
-      <c r="X6" s="78" t="s">
+      <c r="X6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="78" t="s">
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="80"/>
+      <c r="AA6" s="79"/>
       <c r="AB6" s="23"/>
       <c r="AC6" s="24"/>
-      <c r="AD6" s="71" t="s">
+      <c r="AD6" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="AE6" s="73"/>
+      <c r="AE6" s="76"/>
       <c r="AF6" s="25"/>
       <c r="AG6" s="26"/>
       <c r="AH6" s="20"/>
@@ -2142,79 +2136,79 @@
     </row>
     <row r="11" spans="1:42" ht="21">
       <c r="A11" s="3"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="76"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="73"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="76"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="73"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="13" t="s">
         <v>4</v>
@@ -2276,21 +2270,21 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="12"/>
-      <c r="X13" s="78" t="s">
+      <c r="X13" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="78" t="s">
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="AA13" s="80"/>
+      <c r="AA13" s="79"/>
       <c r="AB13" s="23"/>
       <c r="AC13" s="24"/>
-      <c r="AD13" s="71" t="s">
+      <c r="AD13" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="73"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="76"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="26"/>
       <c r="AI13" s="20"/>
@@ -2341,7 +2335,7 @@
         <v>49</v>
       </c>
       <c r="AG14" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH14" s="36" t="s">
         <v>70</v>
@@ -3669,16 +3663,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="B11:AM11"/>
+    <mergeCell ref="C12:AA12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="B4:AL4"/>
     <mergeCell ref="C5:AA5"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="B11:AM11"/>
-    <mergeCell ref="C12:AA12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
   </mergeCells>
   <conditionalFormatting sqref="W1:W3">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">

--- a/src/test/resources/rules.xlsx
+++ b/src/test/resources/rules.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>RuleSet</t>
   </si>
@@ -243,6 +243,9 @@
 insert( errorEn );
 RuleMessageError errorEs = new RuleMessageError("$7", "$8", "$9", "$10", "$1", "$2",$11);        
 insert( errorEs );</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -818,9 +821,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,6 +973,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,16 +986,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1498,25 +1501,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD15" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16:AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="0.88671875" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" customWidth="1"/>
-    <col min="4" max="4" width="0.5546875" customWidth="1"/>
-    <col min="5" max="5" width="1.88671875" customWidth="1"/>
-    <col min="6" max="6" width="0.5546875" customWidth="1"/>
-    <col min="7" max="7" width="1.88671875" customWidth="1"/>
-    <col min="8" max="8" width="0.5546875" customWidth="1"/>
-    <col min="9" max="9" width="1.88671875" customWidth="1"/>
-    <col min="10" max="10" width="0.5546875" customWidth="1"/>
-    <col min="11" max="11" width="1.88671875" customWidth="1"/>
-    <col min="12" max="12" width="0.5546875" customWidth="1"/>
-    <col min="13" max="13" width="1.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" style="80" customWidth="1"/>
+    <col min="4" max="4" width="1" style="80" customWidth="1"/>
+    <col min="5" max="5" width="1.88671875" style="80" customWidth="1"/>
+    <col min="6" max="6" width="0.5546875" style="80" customWidth="1"/>
+    <col min="7" max="7" width="1.88671875" style="80" customWidth="1"/>
+    <col min="8" max="8" width="0.5546875" style="80" customWidth="1"/>
+    <col min="9" max="9" width="1.88671875" style="80" customWidth="1"/>
+    <col min="10" max="10" width="0.5546875" style="80" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" style="80" customWidth="1"/>
+    <col min="12" max="12" width="0.5546875" style="80" customWidth="1"/>
+    <col min="13" max="13" width="1.88671875" style="80" customWidth="1"/>
     <col min="14" max="20" width="2" customWidth="1"/>
     <col min="21" max="21" width="22.5546875" customWidth="1"/>
     <col min="22" max="22" width="33.109375" customWidth="1"/>
@@ -1541,15 +1544,15 @@
     <row r="1" spans="1:42" ht="18">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
@@ -1589,15 +1592,15 @@
     <row r="2" spans="1:42" ht="86.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
@@ -1618,7 +1621,7 @@
       <c r="AC2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="70" t="s">
+      <c r="AD2" s="69" t="s">
         <v>68</v>
       </c>
       <c r="AE2" s="5"/>
@@ -1637,15 +1640,15 @@
     <row r="3" spans="1:42" ht="14.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
@@ -1680,45 +1683,45 @@
     </row>
     <row r="4" spans="1:42" ht="21">
       <c r="A4" s="3"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="75"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
@@ -1726,33 +1729,33 @@
     <row r="5" spans="1:42" ht="15" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="75"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="13" t="s">
         <v>4</v>
@@ -1792,25 +1795,25 @@
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
       <c r="W6" s="12"/>
       <c r="X6" s="77" t="s">
         <v>12</v>
@@ -1820,19 +1823,19 @@
         <v>13</v>
       </c>
       <c r="AA6" s="79"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="75" t="s">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -1841,126 +1844,126 @@
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="34" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AE7" s="34" t="s">
+      <c r="AE7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AF7" s="35" t="s">
+      <c r="AF7" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AG7" s="36" t="s">
+      <c r="AG7" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
     </row>
     <row r="8" spans="1:42" ht="34.5" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="39" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="41" t="s">
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="V8" s="41" t="s">
+      <c r="V8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="42"/>
-      <c r="X8" s="43" t="s">
+      <c r="W8" s="41"/>
+      <c r="X8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="44" t="s">
+      <c r="Y8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="45" t="s">
+      <c r="Z8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="46" t="s">
+      <c r="AA8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="48" t="s">
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AD8" s="49" t="s">
+      <c r="AD8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="49" t="s">
+      <c r="AE8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="50" t="s">
+      <c r="AF8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AG8" s="50" t="s">
+      <c r="AG8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AH8" s="51" t="s">
+      <c r="AH8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AI8" s="52" t="s">
+      <c r="AI8" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AJ8" s="52" t="s">
+      <c r="AJ8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AK8" s="52" t="s">
+      <c r="AK8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AL8" s="51" t="s">
+      <c r="AL8" s="50" t="s">
         <v>33</v>
       </c>
       <c r="AM8" s="3"/>
@@ -1969,81 +1972,85 @@
     </row>
     <row r="9" spans="1:42" ht="144">
       <c r="A9" s="4"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53">
         <v>1</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55" t="s">
+      <c r="D9" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="53">
+        <v>1</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56" t="str">
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55" t="str">
         <f t="shared" ref="U9:U10" si="0">N9</f>
         <v>firstName</v>
       </c>
-      <c r="V9" s="56" t="s">
+      <c r="V9" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="58" t="s">
+      <c r="Y9" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="Z9" s="58" t="s">
+      <c r="Z9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="AA9" s="58" t="s">
+      <c r="AA9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60" t="str">
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="59" t="str">
         <f t="shared" ref="AC9:AC10" si="1">X9</f>
         <v>Person's first name cannot be null</v>
       </c>
-      <c r="AD9" s="61" t="s">
+      <c r="AD9" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="62" t="str">
-        <f>CONCATENATE( "person",",",U9,",",$X$6,",",C9," [",U9,"] - ",_xlfn.ENCODEURL(X9),",",_xlfn.ENCODEURL(X9),",",_xlfn.ENCODEURL(Y9),",", $Z$6,",",C9," [",U9,"] - ",Z9,",",Z9,",",AA9,",","$person.getFirstName()")</f>
-        <v>person,firstName,en,1 [firstName] - Person%27s%20first%20name%20cannot%20be%20null,Person%27s%20first%20name%20cannot%20be%20null,A%20name%20with%20some%20value%20different%20than%20null,es,1 [firstName] - El primer nombre de la persona no pude ser nulo,El primer nombre de la persona no pude ser nulo,Un nombre con algún valor diferente de nulo,$person.getFirstName()</v>
-      </c>
-      <c r="AG9" s="58" t="str">
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="61" t="str">
+        <f>CONCATENATE( "person",",",U9,",",$X$6,",",_xlfn.ENCODEURL(CONCATENATE(C9,D9,E9))," [",U9,"] - ",_xlfn.ENCODEURL(X9),",",_xlfn.ENCODEURL(X9),",",_xlfn.ENCODEURL(Y9),",", $Z$6,",",_xlfn.ENCODEURL(CONCATENATE(C9,D9,E9))," [",U9,"] - ",Z9,",",Z9,",",AA9,",","$person.getFirstName()")</f>
+        <v>person,firstName,en,1.1 [firstName] - Person%27s%20first%20name%20cannot%20be%20null,Person%27s%20first%20name%20cannot%20be%20null,A%20name%20with%20some%20value%20different%20than%20null,es,1.1 [firstName] - El primer nombre de la persona no pude ser nulo,El primer nombre de la persona no pude ser nulo,Un nombre con algún valor diferente de nulo,$person.getFirstName()</v>
+      </c>
+      <c r="AG9" s="57" t="str">
         <f>CONCATENATE("ERROR",",",_xlfn.ENCODEURL(X9))</f>
         <v>ERROR,Person%27s%20first%20name%20cannot%20be%20null</v>
       </c>
-      <c r="AH9" s="63" t="s">
+      <c r="AH9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AI9" s="64" t="str">
+      <c r="AI9" s="63" t="str">
         <f t="shared" ref="AI9:AI10" si="2">U9</f>
         <v>firstName</v>
       </c>
-      <c r="AJ9" s="64">
+      <c r="AJ9" s="63">
         <v>100</v>
       </c>
-      <c r="AK9" s="63" t="str">
+      <c r="AK9" s="62" t="str">
         <f t="shared" ref="AK9:AK10" si="3">IF(AC9="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AL9" s="63" t="s">
+      <c r="AL9" s="62" t="s">
         <v>41</v>
       </c>
       <c r="AM9" s="4"/>
@@ -2052,81 +2059,85 @@
     </row>
     <row r="10" spans="1:42" ht="144">
       <c r="A10" s="4"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54">
+      <c r="B10" s="52"/>
+      <c r="C10" s="53">
         <v>1</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55" t="s">
+      <c r="D10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="53">
+        <v>2</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56" t="str">
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55" t="str">
         <f t="shared" si="0"/>
         <v>firstName</v>
       </c>
-      <c r="V10" s="56" t="s">
+      <c r="V10" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58" t="s">
+      <c r="W10" s="56"/>
+      <c r="X10" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="58" t="s">
+      <c r="Y10" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="58" t="s">
+      <c r="Z10" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="58" t="s">
+      <c r="AA10" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60" t="str">
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="59" t="str">
         <f t="shared" si="1"/>
         <v>Person's first name cannot be empty</v>
       </c>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61" t="s">
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AF10" s="62" t="str">
-        <f>CONCATENATE( "person",",",U10,",",$X$6,",",C10," [",U10,"] - ",_xlfn.ENCODEURL(X10),",",_xlfn.ENCODEURL(X10),",",_xlfn.ENCODEURL(Y10),",", $Z$6,",",C10," [",U10,"] - ",Z10,",",Z10,",",AA10,",","$person.getFirstName()")</f>
-        <v>person,firstName,en,1 [firstName] - Person%27s%20first%20name%20cannot%20be%20empty,Person%27s%20first%20name%20cannot%20be%20empty,A%20name%20with%20some%20value%20different%20than%20empty,es,1 [firstName] - El primer nombre de la persona no pude ser vacío,El primer nombre de la persona no pude ser vacío,Un nombre con algún valor diferente de vacío,$person.getFirstName()</v>
-      </c>
-      <c r="AG10" s="58" t="str">
+      <c r="AF10" s="61" t="str">
+        <f>CONCATENATE( "person",",",U10,",",$X$6,",",_xlfn.ENCODEURL(CONCATENATE(C10,D10,E10))," [",U10,"] - ",_xlfn.ENCODEURL(X10),",",_xlfn.ENCODEURL(X10),",",_xlfn.ENCODEURL(Y10),",", $Z$6,",",_xlfn.ENCODEURL(CONCATENATE(C10,D10,E10))," [",U10,"] - ",Z10,",",Z10,",",AA10,",","$person.getFirstName()")</f>
+        <v>person,firstName,en,1.2 [firstName] - Person%27s%20first%20name%20cannot%20be%20empty,Person%27s%20first%20name%20cannot%20be%20empty,A%20name%20with%20some%20value%20different%20than%20empty,es,1.2 [firstName] - El primer nombre de la persona no pude ser vacío,El primer nombre de la persona no pude ser vacío,Un nombre con algún valor diferente de vacío,$person.getFirstName()</v>
+      </c>
+      <c r="AG10" s="57" t="str">
         <f>CONCATENATE("ERROR",",",_xlfn.ENCODEURL(X10))</f>
         <v>ERROR,Person%27s%20first%20name%20cannot%20be%20empty</v>
       </c>
-      <c r="AH10" s="63" t="s">
+      <c r="AH10" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AI10" s="64" t="str">
+      <c r="AI10" s="63" t="str">
         <f t="shared" si="2"/>
         <v>firstName</v>
       </c>
-      <c r="AJ10" s="64">
+      <c r="AJ10" s="63">
         <v>99</v>
       </c>
-      <c r="AK10" s="63" t="str">
+      <c r="AK10" s="62" t="str">
         <f t="shared" si="3"/>
         <v>true</v>
       </c>
-      <c r="AL10" s="63" t="str">
+      <c r="AL10" s="62" t="str">
         <f>IF(AD10="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
@@ -2136,79 +2147,79 @@
     </row>
     <row r="11" spans="1:42" ht="21">
       <c r="A11" s="3"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="75"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="75"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="13" t="s">
         <v>4</v>
@@ -2250,25 +2261,25 @@
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
       <c r="W13" s="12"/>
       <c r="X13" s="77" t="s">
         <v>12</v>
@@ -2278,20 +2289,20 @@
         <v>13</v>
       </c>
       <c r="AA13" s="79"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="75" t="s">
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
     </row>
@@ -2299,131 +2310,131 @@
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="34" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AE14" s="34" t="s">
+      <c r="AE14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AF14" s="34" t="s">
+      <c r="AF14" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AG14" s="35" t="s">
+      <c r="AG14" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH14" s="36" t="s">
+      <c r="AH14" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
     </row>
     <row r="15" spans="1:42" ht="34.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="39" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="41" t="s">
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="V15" s="41" t="s">
+      <c r="V15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="42"/>
-      <c r="X15" s="43" t="s">
+      <c r="W15" s="41"/>
+      <c r="X15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="Y15" s="44" t="s">
+      <c r="Y15" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="45" t="s">
+      <c r="Z15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AA15" s="46" t="s">
+      <c r="AA15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="48" t="s">
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AD15" s="49" t="s">
+      <c r="AD15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AE15" s="49" t="s">
+      <c r="AE15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AF15" s="49" t="s">
+      <c r="AF15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AG15" s="50" t="s">
+      <c r="AG15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AH15" s="50" t="s">
+      <c r="AH15" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AI15" s="51" t="s">
+      <c r="AI15" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ15" s="52" t="s">
+      <c r="AJ15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AK15" s="52" t="s">
+      <c r="AK15" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AL15" s="52" t="s">
+      <c r="AL15" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AM15" s="51" t="s">
+      <c r="AM15" s="50" t="s">
         <v>33</v>
       </c>
       <c r="AN15" s="3"/>
@@ -2431,82 +2442,86 @@
     </row>
     <row r="16" spans="1:42" ht="115.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="65">
+      <c r="B16" s="52"/>
+      <c r="C16" s="64">
         <v>2</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66" t="s">
+      <c r="D16" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="64">
+        <v>1</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67" t="str">
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66" t="str">
         <f t="shared" ref="U16:U18" si="4">N16</f>
         <v>email</v>
       </c>
-      <c r="V16" s="67" t="s">
+      <c r="V16" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="W16" s="57"/>
-      <c r="X16" s="58" t="s">
+      <c r="W16" s="56"/>
+      <c r="X16" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="Y16" s="58" t="s">
+      <c r="Y16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="AA16" s="58" t="s">
+      <c r="AA16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60" t="str">
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="59" t="str">
         <f t="shared" ref="AC16:AC18" si="5">X16</f>
         <v>Person's email cannot be null</v>
       </c>
-      <c r="AD16" s="61" t="s">
+      <c r="AD16" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="62" t="str">
-        <f>CONCATENATE( "person",",",U16,",",$X$6,",",C16," [",U16,"] - ",_xlfn.ENCODEURL(X16),",",_xlfn.ENCODEURL(X16),",",_xlfn.ENCODEURL(Y16),",", $Z$6,",",C16," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
-        <v>person,email,en,2 [email] - Person%27s%20email%20cannot%20be%20null,Person%27s%20email%20cannot%20be%20null,An%20email%20with%20some%20value%20different%20than%20null,es,2 [email] - El email de la persona no puede ser nulo,El email de la persona no puede ser nulo,Un email con algún valor diferente de nulo,$person.getEmail()</v>
-      </c>
-      <c r="AH16" s="58" t="str">
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="61" t="str">
+        <f>CONCATENATE( "person",",",U16,",",$X$6,",",_xlfn.ENCODEURL(CONCATENATE(C16,D16,E16))," [",U16,"] - ",_xlfn.ENCODEURL(X16),",",_xlfn.ENCODEURL(X16),",",_xlfn.ENCODEURL(Y16),",", $Z$6,",",_xlfn.ENCODEURL(CONCATENATE(C16,D16,E16))," [",U16,"] - ",Z16,",",Z16,",",AA16,",","$person.getEmail()")</f>
+        <v>person,email,en,2.1 [email] - Person%27s%20email%20cannot%20be%20null,Person%27s%20email%20cannot%20be%20null,An%20email%20with%20some%20value%20different%20than%20null,es,2.1 [email] - El email de la persona no puede ser nulo,El email de la persona no puede ser nulo,Un email con algún valor diferente de nulo,$person.getEmail()</v>
+      </c>
+      <c r="AH16" s="57" t="str">
         <f>CONCATENATE("ERROR",",",_xlfn.ENCODEURL(X16))</f>
         <v>ERROR,Person%27s%20email%20cannot%20be%20null</v>
       </c>
-      <c r="AI16" s="63" t="s">
+      <c r="AI16" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AJ16" s="64" t="str">
+      <c r="AJ16" s="63" t="str">
         <f t="shared" ref="AJ16:AJ18" si="6">U16</f>
         <v>email</v>
       </c>
-      <c r="AK16" s="64">
+      <c r="AK16" s="63">
         <v>100</v>
       </c>
-      <c r="AL16" s="63" t="str">
+      <c r="AL16" s="62" t="str">
         <f t="shared" ref="AL16:AL18" si="7">IF(AD16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="AM16" s="63" t="str">
+      <c r="AM16" s="62" t="str">
         <f t="shared" ref="AM16:AM18" si="8">IF(AC16="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
@@ -2515,166 +2530,174 @@
     </row>
     <row r="17" spans="1:41" ht="115.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="65">
+      <c r="B17" s="52"/>
+      <c r="C17" s="64">
         <v>2</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="66" t="s">
+      <c r="D17" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="64">
+        <v>2</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67" t="str">
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66" t="str">
         <f t="shared" si="4"/>
         <v>email</v>
       </c>
-      <c r="V17" s="67" t="s">
+      <c r="V17" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="W17" s="57"/>
-      <c r="X17" s="58" t="s">
+      <c r="W17" s="56"/>
+      <c r="X17" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="58" t="s">
+      <c r="Y17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="58" t="s">
+      <c r="Z17" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="AA17" s="58" t="s">
+      <c r="AA17" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="60" t="str">
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="59" t="str">
         <f t="shared" si="5"/>
         <v>Person's email cannot be empty</v>
       </c>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="61" t="s">
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="62" t="str">
-        <f t="shared" ref="AG17:AG18" si="9">CONCATENATE( "person",",",U17,",",$X$6,",",C17," [",U17,"] - ",_xlfn.ENCODEURL(X17),",",_xlfn.ENCODEURL(X17),",",_xlfn.ENCODEURL(Y17),",", $Z$6,",",C17," [",U17,"] - ",Z17,",",Z17,",",AA17,",","$person.getEmail()")</f>
-        <v>person,email,en,2 [email] - Person%27s%20email%20cannot%20be%20empty,Person%27s%20email%20cannot%20be%20empty,An%20email%20with%20some%20value%20different%20than%20empty,es,2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
-      </c>
-      <c r="AH17" s="58" t="str">
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="61" t="str">
+        <f t="shared" ref="AG17:AG18" si="9">CONCATENATE( "person",",",U17,",",$X$6,",",_xlfn.ENCODEURL(CONCATENATE(C17,D17,E17))," [",U17,"] - ",_xlfn.ENCODEURL(X17),",",_xlfn.ENCODEURL(X17),",",_xlfn.ENCODEURL(Y17),",", $Z$6,",",_xlfn.ENCODEURL(CONCATENATE(C17,D17,E17))," [",U17,"] - ",Z17,",",Z17,",",AA17,",","$person.getEmail()")</f>
+        <v>person,email,en,2.2 [email] - Person%27s%20email%20cannot%20be%20empty,Person%27s%20email%20cannot%20be%20empty,An%20email%20with%20some%20value%20different%20than%20empty,es,2.2 [email] - El email de la persona no puede ser vacío,El email de la persona no puede ser vacío,Un email con algún valor diferente de vacío,$person.getEmail()</v>
+      </c>
+      <c r="AH17" s="57" t="str">
         <f t="shared" ref="AH17:AH18" si="10">CONCATENATE("ERROR",",",_xlfn.ENCODEURL(X17))</f>
         <v>ERROR,Person%27s%20email%20cannot%20be%20empty</v>
       </c>
-      <c r="AI17" s="63" t="s">
+      <c r="AI17" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AJ17" s="64" t="str">
+      <c r="AJ17" s="63" t="str">
         <f t="shared" si="6"/>
         <v>email</v>
       </c>
-      <c r="AK17" s="64">
+      <c r="AK17" s="63">
         <v>99</v>
       </c>
-      <c r="AL17" s="63" t="str">
+      <c r="AL17" s="62" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="AM17" s="63" t="str">
+      <c r="AM17" s="62" t="str">
         <f t="shared" si="8"/>
         <v>true</v>
       </c>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
     </row>
-    <row r="18" spans="1:41" ht="86.4">
+    <row r="18" spans="1:41" ht="115.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="65">
+      <c r="B18" s="52"/>
+      <c r="C18" s="64">
         <v>2</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66" t="s">
+      <c r="D18" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="64">
+        <v>3</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67" t="str">
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66" t="str">
         <f t="shared" si="4"/>
         <v>email</v>
       </c>
-      <c r="V18" s="67" t="s">
+      <c r="V18" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="W18" s="57"/>
-      <c r="X18" s="60" t="s">
+      <c r="W18" s="56"/>
+      <c r="X18" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="Y18" s="60" t="s">
+      <c r="Y18" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="Z18" s="60" t="s">
+      <c r="Z18" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AA18" s="60" t="s">
+      <c r="AA18" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="60" t="str">
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="59" t="str">
         <f t="shared" si="5"/>
         <v>Person's email is not valid</v>
       </c>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
       <c r="AF18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AG18" s="62" t="str">
+      <c r="AG18" s="61" t="str">
         <f t="shared" si="9"/>
-        <v>person,email,en,2 [email] - Person%27s%20email%20is%20not%20valid,Person%27s%20email%20is%20not%20valid,A%20valid%20email,es,2 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
-      </c>
-      <c r="AH18" s="58" t="str">
+        <v>person,email,en,2.3 [email] - Person%27s%20email%20is%20not%20valid,Person%27s%20email%20is%20not%20valid,A%20valid%20email,es,2.3 [email] - El email de la persona es incorrecto,El email de la persona es incorrecto,Un email válido,$person.getEmail()</v>
+      </c>
+      <c r="AH18" s="57" t="str">
         <f t="shared" si="10"/>
         <v>ERROR,Person%27s%20email%20is%20not%20valid</v>
       </c>
-      <c r="AI18" s="63" t="s">
+      <c r="AI18" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="AJ18" s="64" t="str">
+      <c r="AJ18" s="63" t="str">
         <f t="shared" si="6"/>
         <v>email</v>
       </c>
-      <c r="AK18" s="64">
+      <c r="AK18" s="63">
         <v>98</v>
       </c>
-      <c r="AL18" s="63" t="str">
+      <c r="AL18" s="62" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="AM18" s="63" t="str">
+      <c r="AM18" s="62" t="str">
         <f t="shared" si="8"/>
         <v>true</v>
       </c>
@@ -3663,16 +3686,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="C5:AA5"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="B11:AM11"/>
     <mergeCell ref="C12:AA12"/>
     <mergeCell ref="X13:Y13"/>
     <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="C5:AA5"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="W1:W3">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">

--- a/src/test/resources/rules.xlsx
+++ b/src/test/resources/rules.xlsx
@@ -973,11 +973,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,14 +984,16 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,25 +1501,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD15" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16:AG18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD16" workbookViewId="0">
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="0.88671875" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" style="80" customWidth="1"/>
-    <col min="4" max="4" width="1" style="80" customWidth="1"/>
-    <col min="5" max="5" width="1.88671875" style="80" customWidth="1"/>
-    <col min="6" max="6" width="0.5546875" style="80" customWidth="1"/>
-    <col min="7" max="7" width="1.88671875" style="80" customWidth="1"/>
-    <col min="8" max="8" width="0.5546875" style="80" customWidth="1"/>
-    <col min="9" max="9" width="1.88671875" style="80" customWidth="1"/>
-    <col min="10" max="10" width="0.5546875" style="80" customWidth="1"/>
-    <col min="11" max="11" width="1.88671875" style="80" customWidth="1"/>
-    <col min="12" max="12" width="0.5546875" style="80" customWidth="1"/>
-    <col min="13" max="13" width="1.88671875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" style="70" customWidth="1"/>
+    <col min="4" max="4" width="1" style="70" customWidth="1"/>
+    <col min="5" max="5" width="1.88671875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="0.5546875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="1.88671875" style="70" customWidth="1"/>
+    <col min="8" max="8" width="0.5546875" style="70" customWidth="1"/>
+    <col min="9" max="9" width="1.88671875" style="70" customWidth="1"/>
+    <col min="10" max="10" width="0.5546875" style="70" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" style="70" customWidth="1"/>
+    <col min="12" max="12" width="0.5546875" style="70" customWidth="1"/>
+    <col min="13" max="13" width="1.88671875" style="70" customWidth="1"/>
     <col min="14" max="20" width="2" customWidth="1"/>
     <col min="21" max="21" width="22.5546875" customWidth="1"/>
     <col min="22" max="22" width="33.109375" customWidth="1"/>
@@ -1683,45 +1683,45 @@
     </row>
     <row r="4" spans="1:42" ht="21">
       <c r="A4" s="3"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="73"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
@@ -1729,33 +1729,33 @@
     <row r="5" spans="1:42" ht="15" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="75"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="73"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="13" t="s">
         <v>4</v>
@@ -1825,10 +1825,10 @@
       <c r="AA6" s="79"/>
       <c r="AB6" s="22"/>
       <c r="AC6" s="23"/>
-      <c r="AD6" s="70" t="s">
+      <c r="AD6" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="AE6" s="72"/>
+      <c r="AE6" s="76"/>
       <c r="AF6" s="24"/>
       <c r="AG6" s="25"/>
       <c r="AH6" s="19"/>
@@ -2147,79 +2147,79 @@
     </row>
     <row r="11" spans="1:42" ht="21">
       <c r="A11" s="3"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="75"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="73"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="75"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="73"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="13" t="s">
         <v>4</v>
@@ -2291,11 +2291,11 @@
       <c r="AA13" s="79"/>
       <c r="AB13" s="22"/>
       <c r="AC13" s="23"/>
-      <c r="AD13" s="70" t="s">
+      <c r="AD13" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="72"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="76"/>
       <c r="AG13" s="24"/>
       <c r="AH13" s="25"/>
       <c r="AI13" s="19"/>
@@ -2616,7 +2616,7 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
     </row>
-    <row r="18" spans="1:41" ht="115.2">
+    <row r="18" spans="1:41" ht="86.4">
       <c r="A18" s="4"/>
       <c r="B18" s="52"/>
       <c r="C18" s="64">
@@ -3686,16 +3686,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="B11:AM11"/>
+    <mergeCell ref="C12:AA12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="B4:AL4"/>
     <mergeCell ref="C5:AA5"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="B11:AM11"/>
-    <mergeCell ref="C12:AA12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
   </mergeCells>
   <conditionalFormatting sqref="W1:W3">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
